--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_11_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_11_39.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2742858.508948813</v>
+        <v>2731283.626286007</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1544268.333556294</v>
+        <v>1544268.333556296</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3832491.617007654</v>
+        <v>3832491.617007656</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7487521.347961936</v>
+        <v>7487521.347961935</v>
       </c>
     </row>
     <row r="11">
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>6.05642108929943</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -838,46 +838,46 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="K4" t="n">
+      <c r="R4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>3.334980354192922</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -917,31 +917,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,31 +972,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C6" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>5.309829763041575</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1078,46 +1078,46 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="T7" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>6.056421089299432</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="V7" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,43 +1151,43 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,58 +1221,58 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="S9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="I9" t="n">
+      <c r="T9" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.334980354192922</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1330,31 +1330,31 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="V10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="R10" t="n">
+      <c r="W10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
+      <c r="X10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>39.8458570022</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>225.880194423629</v>
       </c>
       <c r="E11" t="n">
         <v>244.5627323611424</v>
@@ -1382,10 +1382,10 @@
         <v>244.5627323611424</v>
       </c>
       <c r="G11" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>210.5206988449226</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>20.13851882462786</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>79.88066700957427</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>94.22834976480537</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.890155818771679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>16.26636519632993</v>
       </c>
       <c r="G12" t="n">
-        <v>22.97903749028516</v>
+        <v>8.532767695027824</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.12455904281175</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>99.6672001609758</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>42.73354268647367</v>
+        <v>133.8124467517665</v>
       </c>
       <c r="T12" t="n">
         <v>71.33002979966493</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.02913298488335</v>
+        <v>35.03250476690686</v>
       </c>
       <c r="C13" t="n">
         <v>38.44397390157388</v>
@@ -1540,7 +1540,7 @@
         <v>16.6182008258773</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>39.18150716274486</v>
       </c>
       <c r="H13" t="n">
         <v>33.36542304957266</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>21.37636593423887</v>
+        <v>95.09829518145362</v>
       </c>
       <c r="T13" t="n">
         <v>99.11443541877142</v>
@@ -1591,7 +1591,7 @@
         <v>157.7201511395371</v>
       </c>
       <c r="X13" t="n">
-        <v>96.9068081919832</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>89.78180615504084</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>243.0590168402441</v>
       </c>
       <c r="F14" t="n">
         <v>244.5627323611424</v>
@@ -1622,7 +1622,7 @@
         <v>244.5627323611424</v>
       </c>
       <c r="H14" t="n">
-        <v>200.4521928099588</v>
+        <v>145.8794272097891</v>
       </c>
       <c r="I14" t="n">
         <v>71.03514297480339</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>10.07001278966411</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.81216097461052</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>84.15984372984163</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>24.44423374595828</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.66183041784964</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>33.83714575629804</v>
@@ -1695,13 +1695,13 @@
         <v>18.77372722338325</v>
       </c>
       <c r="F15" t="n">
-        <v>89.29598844917011</v>
+        <v>6.197859161366182</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.1591249337519</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>32.66503665150992</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T15" t="n">
-        <v>61.26152376470117</v>
+        <v>116.1116864143033</v>
       </c>
       <c r="U15" t="n">
         <v>87.06950896269865</v>
@@ -1777,7 +1777,7 @@
         <v>6.549694790913549</v>
       </c>
       <c r="G16" t="n">
-        <v>29.1130011277811</v>
+        <v>29.11300112778086</v>
       </c>
       <c r="H16" t="n">
         <v>23.29691701460891</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>38.12415411449653</v>
+        <v>38.12415411449642</v>
       </c>
       <c r="S16" t="n">
-        <v>85.02978914648989</v>
+        <v>85.02978914648988</v>
       </c>
       <c r="T16" t="n">
         <v>89.04592938380767</v>
       </c>
       <c r="U16" t="n">
-        <v>147.4473147609099</v>
+        <v>147.4473147609101</v>
       </c>
       <c r="V16" t="n">
         <v>113.2662900918103</v>
@@ -1844,22 +1844,22 @@
         <v>233.7924756417988</v>
       </c>
       <c r="C17" t="n">
-        <v>216.3315257493257</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>17.1157453604828</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>35.7989313627431</v>
       </c>
       <c r="F17" t="n">
         <v>244.5627323611424</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>190.3821800202947</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>237.2965726343718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.1591249337519</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.12455904281175</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.4345423678662</v>
+        <v>22.59502386184582</v>
       </c>
       <c r="T18" t="n">
-        <v>51.19151097503707</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U18" t="n">
-        <v>76.99949617303454</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V18" t="n">
         <v>83.85922112774347</v>
@@ -1989,7 +1989,7 @@
         <v>56.83161918179567</v>
       </c>
       <c r="Y18" t="n">
-        <v>56.74132975562256</v>
+        <v>57.98180019484298</v>
       </c>
     </row>
     <row r="19">
@@ -2087,19 +2087,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>232.98900405058</v>
       </c>
       <c r="F20" t="n">
         <v>244.5627323611424</v>
       </c>
       <c r="G20" t="n">
-        <v>244.5627323611424</v>
+        <v>32.69467200626836</v>
       </c>
       <c r="H20" t="n">
-        <v>190.3821800202947</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>60.96513018513929</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>59.74214818494642</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>29.8153843709496</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>178.8108924484531</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>200.2996026957312</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>50.51463629992634</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S21" t="n">
-        <v>171.5363898835276</v>
+        <v>22.59502386184582</v>
       </c>
       <c r="T21" t="n">
         <v>200.1328769967189</v>
       </c>
       <c r="U21" t="n">
-        <v>78.23996661225495</v>
+        <v>76.99949617303454</v>
       </c>
       <c r="V21" t="n">
         <v>83.85922112774347</v>
@@ -2223,10 +2223,10 @@
         <v>102.7536171392378</v>
       </c>
       <c r="X21" t="n">
-        <v>56.83161918179567</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>56.74132975562256</v>
       </c>
     </row>
     <row r="22">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>205.5509148396414</v>
+        <v>233.7924756417988</v>
       </c>
       <c r="C23" t="n">
         <v>216.3315257493257</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>43.75398990365988</v>
       </c>
       <c r="E23" t="n">
         <v>232.98900405058</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>190.3821800202947</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>74.08983094017752</v>
       </c>
       <c r="U23" t="n">
-        <v>102.4031053423096</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>220.7897346567872</v>
       </c>
       <c r="Y23" t="n">
         <v>237.2965726343718</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.5363898835276</v>
+        <v>55.76559874281827</v>
       </c>
       <c r="T24" t="n">
         <v>200.1328769967189</v>
@@ -2457,13 +2457,13 @@
         <v>83.85922112774347</v>
       </c>
       <c r="W24" t="n">
-        <v>225.0487510630219</v>
+        <v>102.7536171392378</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>56.74132975562256</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>226.9603722732046</v>
+        <v>255.4715635076692</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,19 +2561,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>254.6680919164504</v>
       </c>
       <c r="F26" t="n">
-        <v>279.6137675859</v>
+        <v>279.6137675859001</v>
       </c>
       <c r="G26" t="n">
-        <v>288.0256900612603</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>212.0612678861651</v>
+        <v>212.0612678861652</v>
       </c>
       <c r="I26" t="n">
-        <v>82.64421805100966</v>
+        <v>82.64421805100972</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,28 +2600,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>21.67908786587038</v>
+        <v>21.67908786587044</v>
       </c>
       <c r="S26" t="n">
-        <v>81.42123605081679</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>95.76891880604795</v>
       </c>
       <c r="U26" t="n">
-        <v>124.08219320818</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>200.4899803143235</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>56.09523717737562</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>258.9756605002422</v>
       </c>
     </row>
     <row r="27">
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>39.27090549405597</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>45.44622083250437</v>
       </c>
       <c r="D27" t="n">
-        <v>20.18278740882732</v>
+        <v>45.83623059945965</v>
       </c>
       <c r="E27" t="n">
-        <v>30.38280229958951</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>17.80693423757245</v>
+        <v>17.80693423757251</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3356148920818</v>
+        <v>10.0733367362704</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.5363898835276</v>
+        <v>44.27411172771625</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1328769967189</v>
+        <v>72.8705988409075</v>
       </c>
       <c r="U27" t="n">
-        <v>98.67858403890492</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V27" t="n">
-        <v>105.5383089936138</v>
+        <v>105.5383089936139</v>
       </c>
       <c r="W27" t="n">
-        <v>124.4327050051082</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>193.2887092811099</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>78.42041762149293</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>52.56970202612587</v>
+        <v>52.56970202612592</v>
       </c>
       <c r="C28" t="n">
-        <v>39.9845429428164</v>
+        <v>39.98454294281646</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>21.35319486240098</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>19.1716844907578</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>18.15876986711987</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>40.72207620398744</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>34.90599209081524</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>27.9889649935642</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>14.2094167414732</v>
+        <v>49.73322919070276</v>
       </c>
       <c r="S28" t="n">
-        <v>96.63886422269614</v>
+        <v>96.6388642226962</v>
       </c>
       <c r="T28" t="n">
-        <v>100.6550044600139</v>
+        <v>100.655004460014</v>
       </c>
       <c r="U28" t="n">
-        <v>159.0563898371162</v>
+        <v>159.0563898371163</v>
       </c>
       <c r="V28" t="n">
         <v>124.8753651680166</v>
       </c>
       <c r="W28" t="n">
-        <v>159.2607201807796</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>98.44737723322572</v>
+        <v>59.88360245612937</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.32237519628336</v>
+        <v>91.32237519628342</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>147.3853333052673</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2801,16 +2801,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>271.3160386943413</v>
       </c>
       <c r="G29" t="n">
-        <v>279.7279611697015</v>
+        <v>279.7279611697016</v>
       </c>
       <c r="H29" t="n">
         <v>203.7635389946063</v>
       </c>
       <c r="I29" t="n">
-        <v>74.34648915945084</v>
+        <v>74.3464891594509</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>13.38135897431162</v>
       </c>
       <c r="S29" t="n">
-        <v>73.12350715925797</v>
+        <v>73.12350715925803</v>
       </c>
       <c r="T29" t="n">
-        <v>87.47118991448907</v>
+        <v>87.47118991448913</v>
       </c>
       <c r="U29" t="n">
         <v>115.7844643166212</v>
       </c>
       <c r="V29" t="n">
-        <v>192.1922514227647</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>213.6809616700428</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>234.1710936310988</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>42.7163558586975</v>
+        <v>250.6779316086834</v>
       </c>
     </row>
     <row r="30">
@@ -2877,13 +2877,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>67.68489972657474</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>9.509205346013687</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3356148920818</v>
+        <v>1.775607844711582</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.5363898835276</v>
+        <v>35.97638283615743</v>
       </c>
       <c r="T30" t="n">
-        <v>64.57286994934863</v>
+        <v>64.57286994934869</v>
       </c>
       <c r="U30" t="n">
-        <v>90.3808551473461</v>
+        <v>90.38085514734615</v>
       </c>
       <c r="V30" t="n">
-        <v>97.24058010205502</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>116.1349761135494</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>70.21297815610723</v>
+        <v>70.21297815610728</v>
       </c>
       <c r="Y30" t="n">
-        <v>70.12268872993411</v>
+        <v>115.7225150484785</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>44.27197313456705</v>
+        <v>44.27197313456711</v>
       </c>
       <c r="C31" t="n">
-        <v>31.68681405125758</v>
+        <v>31.68681405125764</v>
       </c>
       <c r="D31" t="n">
-        <v>13.05546597084211</v>
+        <v>13.05546597084216</v>
       </c>
       <c r="E31" t="n">
-        <v>10.87395559919892</v>
+        <v>10.87395559919898</v>
       </c>
       <c r="F31" t="n">
-        <v>9.861040975560996</v>
+        <v>9.861040975561053</v>
       </c>
       <c r="G31" t="n">
-        <v>32.42434731242855</v>
+        <v>32.42434731242861</v>
       </c>
       <c r="H31" t="n">
-        <v>26.60826319925636</v>
+        <v>26.60826319925614</v>
       </c>
       <c r="I31" t="n">
-        <v>19.69123610200532</v>
+        <v>19.69123610200537</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.43550029914388</v>
+        <v>41.43550029914394</v>
       </c>
       <c r="S31" t="n">
-        <v>88.34113533113734</v>
+        <v>88.34113533113739</v>
       </c>
       <c r="T31" t="n">
-        <v>92.35727556845512</v>
+        <v>92.35727556845518</v>
       </c>
       <c r="U31" t="n">
-        <v>150.7586609455574</v>
+        <v>150.7586609455572</v>
       </c>
       <c r="V31" t="n">
         <v>116.5776362764578</v>
@@ -3013,10 +3013,10 @@
         <v>150.9629912892208</v>
       </c>
       <c r="X31" t="n">
-        <v>90.1496483416669</v>
+        <v>90.14964834166696</v>
       </c>
       <c r="Y31" t="n">
-        <v>83.02464630472454</v>
+        <v>83.0246463047246</v>
       </c>
     </row>
     <row r="32">
@@ -3029,19 +3029,19 @@
         <v>162.4409296736312</v>
       </c>
       <c r="C32" t="n">
-        <v>144.9799797811581</v>
+        <v>144.9799797811582</v>
       </c>
       <c r="D32" t="n">
-        <v>134.3901296308335</v>
+        <v>134.3901296308336</v>
       </c>
       <c r="E32" t="n">
         <v>161.6374580824124</v>
       </c>
       <c r="F32" t="n">
-        <v>186.583133751862</v>
+        <v>186.5831337518621</v>
       </c>
       <c r="G32" t="n">
-        <v>194.9950562272223</v>
+        <v>194.9950562272224</v>
       </c>
       <c r="H32" t="n">
         <v>119.0306340521271</v>
@@ -3080,16 +3080,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>2.738284972009936</v>
       </c>
       <c r="U32" t="n">
-        <v>31.05155937414202</v>
+        <v>31.05155937414204</v>
       </c>
       <c r="V32" t="n">
-        <v>66.48571736851798</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>63.74743239650835</v>
       </c>
       <c r="X32" t="n">
         <v>149.4381886886196</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,16 +3117,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.12455904281175</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>200.1328769967189</v>
       </c>
       <c r="U33" t="n">
-        <v>5.647950204866926</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>77.86265436951727</v>
+        <v>62.56594505807829</v>
       </c>
     </row>
     <row r="34">
@@ -3235,22 +3235,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>3.608230388658159</v>
+        <v>3.608230388658187</v>
       </c>
       <c r="T34" t="n">
-        <v>7.624370625975949</v>
+        <v>7.624370625975978</v>
       </c>
       <c r="U34" t="n">
-        <v>66.0257560030782</v>
+        <v>66.02575600307823</v>
       </c>
       <c r="V34" t="n">
-        <v>31.84473133397859</v>
+        <v>31.84473133397861</v>
       </c>
       <c r="W34" t="n">
-        <v>66.23008634674159</v>
+        <v>66.23008634674161</v>
       </c>
       <c r="X34" t="n">
-        <v>5.416743399187737</v>
+        <v>5.416743399187766</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>162.4409296736312</v>
+        <v>123.7750093016229</v>
       </c>
       <c r="C35" t="n">
-        <v>144.9799797811581</v>
+        <v>144.9799797811582</v>
       </c>
       <c r="D35" t="n">
-        <v>134.3901296308335</v>
+        <v>134.3901296308336</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>161.6374580824124</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>186.5831337518621</v>
       </c>
       <c r="G35" t="n">
-        <v>194.9950562272223</v>
+        <v>194.9950562272224</v>
       </c>
       <c r="H35" t="n">
-        <v>119.0306340521271</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,16 +3317,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2.738284972009908</v>
+        <v>2.738284972009936</v>
       </c>
       <c r="U35" t="n">
-        <v>31.05155937414202</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>107.4593464802855</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>52.01313155571174</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S36" t="n">
-        <v>171.5363898835276</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,16 +3402,16 @@
         <v>225.9408621947163</v>
       </c>
       <c r="V36" t="n">
-        <v>101.3763715304307</v>
+        <v>84.03071278399776</v>
       </c>
       <c r="W36" t="n">
         <v>244.5627323611424</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>3.608230388658159</v>
+        <v>3.608230388658187</v>
       </c>
       <c r="T37" t="n">
-        <v>7.624370625975949</v>
+        <v>7.624370625975978</v>
       </c>
       <c r="U37" t="n">
-        <v>66.0257560030782</v>
+        <v>66.02575600307823</v>
       </c>
       <c r="V37" t="n">
-        <v>31.84473133397859</v>
+        <v>31.84473133397861</v>
       </c>
       <c r="W37" t="n">
-        <v>66.23008634674159</v>
+        <v>66.23008634674161</v>
       </c>
       <c r="X37" t="n">
-        <v>5.416743399187737</v>
+        <v>5.416743399187766</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>25.21541967945877</v>
+        <v>162.4409296736312</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>82.04702511253812</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>161.6374580824124</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>186.583133751862</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3554,16 +3554,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>2.738284972009908</v>
+        <v>2.738284972009936</v>
       </c>
       <c r="U38" t="n">
-        <v>31.05155937414202</v>
+        <v>31.05155937414204</v>
       </c>
       <c r="V38" t="n">
         <v>107.4593464802855</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>128.9480567275636</v>
       </c>
       <c r="X38" t="n">
         <v>149.4381886886196</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1328769967189</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>113.9577747844339</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>244.5627323611424</v>
+        <v>78.90192142219793</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>3.608230388658159</v>
+        <v>3.608230388658187</v>
       </c>
       <c r="T40" t="n">
-        <v>7.624370625975949</v>
+        <v>7.624370625975978</v>
       </c>
       <c r="U40" t="n">
-        <v>66.0257560030782</v>
+        <v>66.02575600307823</v>
       </c>
       <c r="V40" t="n">
-        <v>31.84473133397859</v>
+        <v>31.84473133397861</v>
       </c>
       <c r="W40" t="n">
-        <v>66.23008634674159</v>
+        <v>66.23008634674161</v>
       </c>
       <c r="X40" t="n">
-        <v>5.416743399187737</v>
+        <v>5.416743399187766</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>223.9017709660895</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3785,19 +3785,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>35.77221336301594</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>95.51436154796235</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>138.1753187053256</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>214.583105811469</v>
       </c>
       <c r="W41" t="n">
         <v>236.0718160587471</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>244.5627323611424</v>
+        <v>228.9822362606014</v>
       </c>
     </row>
     <row r="42">
@@ -3816,22 +3816,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>53.36403099120146</v>
+        <v>53.36403099120147</v>
       </c>
       <c r="C42" t="n">
-        <v>59.53934632964986</v>
+        <v>59.53934632964987</v>
       </c>
       <c r="D42" t="n">
-        <v>34.27591290597287</v>
+        <v>34.27591290597289</v>
       </c>
       <c r="E42" t="n">
-        <v>44.47592779673506</v>
+        <v>44.47592779673508</v>
       </c>
       <c r="F42" t="n">
-        <v>31.900059734718</v>
+        <v>31.90005973471801</v>
       </c>
       <c r="G42" t="n">
-        <v>24.16646223341588</v>
+        <v>24.16646223341591</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>58.36723722486174</v>
+        <v>58.36723722486175</v>
       </c>
       <c r="T42" t="n">
-        <v>86.96372433805298</v>
+        <v>86.96372433805301</v>
       </c>
       <c r="U42" t="n">
-        <v>112.7717095360505</v>
+        <v>112.7717095360503</v>
       </c>
       <c r="V42" t="n">
         <v>119.6314344907594</v>
@@ -3882,10 +3882,10 @@
         <v>138.5258305022537</v>
       </c>
       <c r="X42" t="n">
-        <v>92.6038325448116</v>
+        <v>92.60383254481161</v>
       </c>
       <c r="Y42" t="n">
-        <v>92.51354311863848</v>
+        <v>92.51354311863849</v>
       </c>
     </row>
     <row r="43">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.66282752327142</v>
+        <v>66.66282752327143</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>54.07766843996197</v>
       </c>
       <c r="D43" t="n">
-        <v>35.44632035954648</v>
+        <v>35.44632035954649</v>
       </c>
       <c r="E43" t="n">
-        <v>33.26480998790329</v>
+        <v>33.26480998790331</v>
       </c>
       <c r="F43" t="n">
-        <v>32.25189536426537</v>
+        <v>32.25189536426538</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>54.81520170113295</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>48.99911758796075</v>
       </c>
       <c r="I43" t="n">
-        <v>42.08209049070969</v>
+        <v>42.0820904907097</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>63.82635468784825</v>
+        <v>60.28881314451311</v>
       </c>
       <c r="S43" t="n">
         <v>110.7319897198417</v>
@@ -3952,19 +3952,19 @@
         <v>114.7481299571595</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>173.1495153342618</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>109.5479580961823</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>112.5405027303713</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>105.4155006934289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>244.5627323611424</v>
       </c>
       <c r="C44" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
         <v>58.86930103184611</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>156.5415536318481</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4101,22 +4101,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>4.864282428832491</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>76.73347215138432</v>
       </c>
       <c r="T45" t="n">
-        <v>57.08411463213057</v>
+        <v>1.240481018117108</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>131.137944462573</v>
       </c>
       <c r="V45" t="n">
         <v>137.997669417282</v>
       </c>
       <c r="W45" t="n">
-        <v>156.8920654287763</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>110.9700674713342</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>85.029062449794</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>72.44390336648453</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>53.81255528606906</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>51.63104491442587</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>50.61813029078795</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>73.18143662765551</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>67.36535251448331</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>60.44832541723227</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>78.76912532567222</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4192,13 +4192,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>157.3347255916847</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>191.7200806044477</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>130.9067376568939</v>
+        <v>44.20085831176588</v>
       </c>
       <c r="Y46" t="n">
         <v>123.7817356199515</v>
@@ -4334,16 +4334,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M2" t="n">
-        <v>7.082327113962777</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N2" t="n">
-        <v>13.8896123982571</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O2" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P2" t="n">
         <v>27.50418296684575</v>
@@ -4355,13 +4355,13 @@
         <v>27.50418296684575</v>
       </c>
       <c r="S2" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T2" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U2" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V2" t="n">
         <v>14.44108515774386</v>
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5500836593369149</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5500836593369149</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5500836593369149</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G3" t="n">
         <v>0.5500836593369149</v>
@@ -4416,13 +4416,13 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="N3" t="n">
-        <v>7.082327113962777</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O3" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P3" t="n">
         <v>20.69689768255142</v>
@@ -4443,16 +4443,16 @@
         <v>27.50418296684575</v>
       </c>
       <c r="V3" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W3" t="n">
-        <v>13.6131814684388</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X3" t="n">
-        <v>6.667680719235332</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.667680719235332</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K4" t="n">
         <v>0.5500836593369149</v>
@@ -4504,34 +4504,34 @@
         <v>27.50418296684575</v>
       </c>
       <c r="P4" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.50418296684575</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="R4" t="n">
-        <v>27.50418296684575</v>
+        <v>10.86425143297768</v>
       </c>
       <c r="S4" t="n">
-        <v>27.50418296684575</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="T4" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="U4" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="V4" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="W4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F5" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G5" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H5" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I5" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J5" t="n">
         <v>0.5500836593369149</v>
@@ -4571,10 +4571,10 @@
         <v>7.082327113962777</v>
       </c>
       <c r="L5" t="n">
-        <v>7.082327113962777</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M5" t="n">
-        <v>7.082327113962777</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N5" t="n">
         <v>13.8896123982571</v>
@@ -4586,31 +4586,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="S5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X5" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="E6" t="n">
         <v>13.6131814684388</v>
       </c>
-      <c r="C6" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7.495584408540386</v>
-      </c>
       <c r="F6" t="n">
-        <v>7.495584408540386</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5500836593369149</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5500836593369149</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="J6" t="n">
         <v>0.5500836593369149</v>
@@ -4650,16 +4650,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="N6" t="n">
-        <v>7.082327113962777</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O6" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="P6" t="n">
         <v>20.69689768255142</v>
@@ -4668,28 +4668,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X6" t="n">
-        <v>13.6131814684388</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.6131814684388</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C7" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D7" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E7" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F7" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G7" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H7" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I7" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J7" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K7" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="L7" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M7" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N7" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O7" t="n">
         <v>27.50418296684575</v>
@@ -4744,31 +4744,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S7" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T7" t="n">
-        <v>27.50418296684575</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="U7" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="V7" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="W7" t="n">
         <v>6.667680719235332</v>
       </c>
       <c r="X7" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F8" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G8" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H8" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L8" t="n">
-        <v>7.082327113962777</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M8" t="n">
-        <v>13.8896123982571</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="N8" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O8" t="n">
         <v>27.50418296684575</v>
@@ -4835,19 +4835,19 @@
         <v>27.50418296684575</v>
       </c>
       <c r="U8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
         <v>0.5500836593369149</v>
@@ -4887,13 +4887,13 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L9" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M9" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="N9" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="O9" t="n">
         <v>13.8896123982571</v>
@@ -4905,28 +4905,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="U9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W9" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X9" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y9" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.91875068377421</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C10" t="n">
-        <v>3.91875068377421</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D10" t="n">
-        <v>3.91875068377421</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E10" t="n">
-        <v>3.91875068377421</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F10" t="n">
-        <v>3.91875068377421</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G10" t="n">
         <v>0.5500836593369149</v>
@@ -4966,7 +4966,7 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L10" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M10" t="n">
         <v>13.8896123982571</v>
@@ -4978,34 +4978,34 @@
         <v>27.50418296684575</v>
       </c>
       <c r="P10" t="n">
-        <v>24.75525293138463</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
-        <v>17.80975218218115</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R10" t="n">
-        <v>10.86425143297768</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S10" t="n">
-        <v>10.86425143297768</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T10" t="n">
-        <v>10.86425143297768</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U10" t="n">
-        <v>3.91875068377421</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V10" t="n">
-        <v>3.91875068377421</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W10" t="n">
-        <v>3.91875068377421</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X10" t="n">
-        <v>3.91875068377421</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.91875068377421</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>973.3113781124771</v>
+        <v>782.0412975263802</v>
       </c>
       <c r="C11" t="n">
-        <v>973.3113781124771</v>
+        <v>741.7929571201175</v>
       </c>
       <c r="D11" t="n">
-        <v>973.3113781124771</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="E11" t="n">
-        <v>726.2783151214242</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="F11" t="n">
-        <v>479.2452521303712</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G11" t="n">
-        <v>232.2121891393183</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H11" t="n">
         <v>19.56501858889139</v>
@@ -5042,49 +5042,49 @@
         <v>19.56501858889139</v>
       </c>
       <c r="K11" t="n">
-        <v>124.4399474973462</v>
+        <v>124.4399474973463</v>
       </c>
       <c r="L11" t="n">
-        <v>306.8231980260855</v>
+        <v>306.8231980260857</v>
       </c>
       <c r="M11" t="n">
-        <v>526.3662512024591</v>
+        <v>526.3662512024594</v>
       </c>
       <c r="N11" t="n">
-        <v>734.8297429586089</v>
+        <v>734.8297429586091</v>
       </c>
       <c r="O11" t="n">
-        <v>886.4882690646268</v>
+        <v>886.4882690646269</v>
       </c>
       <c r="P11" t="n">
-        <v>978.2509294445696</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="Q11" t="n">
         <v>978.2509294445697</v>
       </c>
       <c r="R11" t="n">
-        <v>978.2509294445697</v>
+        <v>957.9089912378748</v>
       </c>
       <c r="S11" t="n">
-        <v>978.2509294445697</v>
+        <v>877.2214488039614</v>
       </c>
       <c r="T11" t="n">
-        <v>978.2509294445697</v>
+        <v>782.0412975263802</v>
       </c>
       <c r="U11" t="n">
-        <v>978.2509294445697</v>
+        <v>782.0412975263802</v>
       </c>
       <c r="V11" t="n">
-        <v>978.2509294445697</v>
+        <v>782.0412975263802</v>
       </c>
       <c r="W11" t="n">
-        <v>978.2509294445697</v>
+        <v>782.0412975263802</v>
       </c>
       <c r="X11" t="n">
-        <v>978.2509294445697</v>
+        <v>782.0412975263802</v>
       </c>
       <c r="Y11" t="n">
-        <v>973.3113781124771</v>
+        <v>782.0412975263802</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>241.5448823733564</v>
+        <v>250.2199289346523</v>
       </c>
       <c r="C12" t="n">
-        <v>197.1957391498597</v>
+        <v>205.8707857111555</v>
       </c>
       <c r="D12" t="n">
-        <v>178.3652155462387</v>
+        <v>187.0402621075345</v>
       </c>
       <c r="E12" t="n">
-        <v>149.2316465984134</v>
+        <v>157.9066931597093</v>
       </c>
       <c r="F12" t="n">
-        <v>132.8009746829287</v>
+        <v>141.4760212442245</v>
       </c>
       <c r="G12" t="n">
-        <v>109.5898257028427</v>
+        <v>132.8570639765196</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5898257028427</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I12" t="n">
         <v>19.56501858889139</v>
@@ -5130,40 +5130,40 @@
         <v>493.3438694636834</v>
       </c>
       <c r="N12" t="n">
-        <v>665.7406350957049</v>
+        <v>735.4609745012144</v>
       </c>
       <c r="O12" t="n">
-        <v>907.8577401332359</v>
+        <v>794.1135545083931</v>
       </c>
       <c r="P12" t="n">
-        <v>907.8577401332359</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="Q12" t="n">
         <v>978.2509294445697</v>
       </c>
       <c r="R12" t="n">
-        <v>877.5769898880285</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="S12" t="n">
-        <v>834.4117952552268</v>
+        <v>843.0868418165227</v>
       </c>
       <c r="T12" t="n">
-        <v>762.3612601040501</v>
+        <v>771.0363066653459</v>
       </c>
       <c r="U12" t="n">
-        <v>664.2420530357042</v>
+        <v>672.9170995970001</v>
       </c>
       <c r="V12" t="n">
-        <v>559.1938308615918</v>
+        <v>567.8688774228876</v>
       </c>
       <c r="W12" t="n">
-        <v>435.0603601910204</v>
+        <v>443.7354067523162</v>
       </c>
       <c r="X12" t="n">
-        <v>357.3127460431178</v>
+        <v>365.9877926044137</v>
       </c>
       <c r="Y12" t="n">
-        <v>279.6563333357942</v>
+        <v>288.3313798970901</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>173.4233367707289</v>
+        <v>213.0006167330974</v>
       </c>
       <c r="C13" t="n">
-        <v>134.5910399004522</v>
+        <v>174.1683198628208</v>
       </c>
       <c r="D13" t="n">
-        <v>114.5782865457467</v>
+        <v>154.1555665081153</v>
       </c>
       <c r="E13" t="n">
-        <v>96.7690790209839</v>
+        <v>136.3463589833524</v>
       </c>
       <c r="F13" t="n">
-        <v>79.9830175807038</v>
+        <v>119.5602975430724</v>
       </c>
       <c r="G13" t="n">
         <v>79.9830175807038</v>
@@ -5197,22 +5197,22 @@
         <v>19.56501858889139</v>
       </c>
       <c r="J13" t="n">
-        <v>55.11795252967443</v>
+        <v>55.11795252967427</v>
       </c>
       <c r="K13" t="n">
-        <v>161.3479816930006</v>
+        <v>161.3479816930005</v>
       </c>
       <c r="L13" t="n">
-        <v>317.1520324785598</v>
+        <v>317.1520324785596</v>
       </c>
       <c r="M13" t="n">
-        <v>484.8830030629063</v>
+        <v>484.8830030629061</v>
       </c>
       <c r="N13" t="n">
-        <v>657.0923398654118</v>
+        <v>657.0923398654115</v>
       </c>
       <c r="O13" t="n">
-        <v>809.8734845378779</v>
+        <v>809.8734845378776</v>
       </c>
       <c r="P13" t="n">
         <v>935.4873277747529</v>
@@ -5224,25 +5224,25 @@
         <v>978.2509294445697</v>
       </c>
       <c r="S13" t="n">
-        <v>956.6586406221062</v>
+        <v>882.1920454228994</v>
       </c>
       <c r="T13" t="n">
-        <v>856.5430492900139</v>
+        <v>782.076454090807</v>
       </c>
       <c r="U13" t="n">
-        <v>697.4361595972122</v>
+        <v>622.9695643980053</v>
       </c>
       <c r="V13" t="n">
-        <v>572.8555574489556</v>
+        <v>498.3889622497487</v>
       </c>
       <c r="W13" t="n">
-        <v>413.5422734696252</v>
+        <v>339.0756782704183</v>
       </c>
       <c r="X13" t="n">
-        <v>315.6566086292381</v>
+        <v>339.0756782704183</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.9679155433383</v>
+        <v>248.3869851845185</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>787.8607766768177</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="C14" t="n">
-        <v>787.8607766768177</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="D14" t="n">
-        <v>787.8607766768177</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="E14" t="n">
-        <v>787.8607766768177</v>
+        <v>732.7367710200806</v>
       </c>
       <c r="F14" t="n">
-        <v>540.8277136857648</v>
+        <v>485.7037080290277</v>
       </c>
       <c r="G14" t="n">
-        <v>293.7946506947118</v>
+        <v>238.6706450379747</v>
       </c>
       <c r="H14" t="n">
         <v>91.31768826040998</v>
@@ -5282,7 +5282,7 @@
         <v>124.4399474973462</v>
       </c>
       <c r="L14" t="n">
-        <v>306.8231980260855</v>
+        <v>306.8231980260856</v>
       </c>
       <c r="M14" t="n">
         <v>526.3662512024591</v>
@@ -5297,31 +5297,31 @@
         <v>978.2509294445696</v>
       </c>
       <c r="Q14" t="n">
-        <v>978.2509294445697</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R14" t="n">
-        <v>968.0791993539999</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S14" t="n">
-        <v>897.5618650362115</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T14" t="n">
-        <v>812.5519218747554</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U14" t="n">
-        <v>787.8607766768177</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="V14" t="n">
-        <v>787.8607766768177</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="W14" t="n">
-        <v>787.8607766768177</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="X14" t="n">
-        <v>787.8607766768177</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Y14" t="n">
-        <v>787.8607766768177</v>
+        <v>978.2509294445696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>423.5804868588976</v>
+        <v>87.62809381481921</v>
       </c>
       <c r="C15" t="n">
-        <v>389.4015517515259</v>
+        <v>53.44915870744744</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7412362640299</v>
+        <v>44.78884321995142</v>
       </c>
       <c r="E15" t="n">
-        <v>361.7778754323296</v>
+        <v>25.82548238825117</v>
       </c>
       <c r="F15" t="n">
-        <v>271.5799073018547</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G15" t="n">
-        <v>132.8570639765196</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H15" t="n">
         <v>19.56501858889139</v>
@@ -5361,46 +5361,46 @@
         <v>146.1858617037014</v>
       </c>
       <c r="L15" t="n">
-        <v>377.8476075409625</v>
+        <v>377.8476075409624</v>
       </c>
       <c r="M15" t="n">
-        <v>619.9647125784935</v>
+        <v>481.6032601595282</v>
       </c>
       <c r="N15" t="n">
-        <v>794.1135545083931</v>
+        <v>481.6032601595282</v>
       </c>
       <c r="O15" t="n">
-        <v>794.1135545083931</v>
+        <v>723.7203651970592</v>
       </c>
       <c r="P15" t="n">
-        <v>978.2509294445697</v>
+        <v>907.8577401332358</v>
       </c>
       <c r="Q15" t="n">
-        <v>978.2509294445697</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R15" t="n">
-        <v>978.2509294445697</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S15" t="n">
-        <v>945.255942927893</v>
+        <v>804.9818487541377</v>
       </c>
       <c r="T15" t="n">
-        <v>883.3756158928413</v>
+        <v>687.6973170225182</v>
       </c>
       <c r="U15" t="n">
-        <v>795.4266169406204</v>
+        <v>599.7483180702973</v>
       </c>
       <c r="V15" t="n">
-        <v>700.548602882633</v>
+        <v>504.8703040123099</v>
       </c>
       <c r="W15" t="n">
-        <v>586.5853403281866</v>
+        <v>390.9070414578635</v>
       </c>
       <c r="X15" t="n">
-        <v>519.0079342964091</v>
+        <v>323.3296354260859</v>
       </c>
       <c r="Y15" t="n">
-        <v>451.5217297052104</v>
+        <v>255.8434308348872</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>141.8091599202224</v>
+        <v>141.8091599202221</v>
       </c>
       <c r="C16" t="n">
-        <v>113.1470711660708</v>
+        <v>113.1470711660705</v>
       </c>
       <c r="D16" t="n">
-        <v>103.3045259274903</v>
+        <v>103.30452592749</v>
       </c>
       <c r="E16" t="n">
-        <v>95.66552651885252</v>
+        <v>95.66552651885215</v>
       </c>
       <c r="F16" t="n">
-        <v>89.04967319469745</v>
+        <v>89.04967319469705</v>
       </c>
       <c r="G16" t="n">
-        <v>59.64260134845381</v>
+        <v>59.64260134845375</v>
       </c>
       <c r="H16" t="n">
-        <v>36.11036193975794</v>
+        <v>36.11036193975793</v>
       </c>
       <c r="I16" t="n">
         <v>19.56501858889139</v>
       </c>
       <c r="J16" t="n">
-        <v>65.08577350428841</v>
+        <v>65.0857735042884</v>
       </c>
       <c r="K16" t="n">
         <v>181.2836236422288</v>
       </c>
       <c r="L16" t="n">
-        <v>267.3129276054892</v>
+        <v>347.055495402402</v>
       </c>
       <c r="M16" t="n">
-        <v>445.0117191644498</v>
+        <v>445.0117191644497</v>
       </c>
       <c r="N16" t="n">
-        <v>627.1888769415693</v>
+        <v>627.1888769415692</v>
       </c>
       <c r="O16" t="n">
-        <v>789.9378425886496</v>
+        <v>789.9378425886495</v>
       </c>
       <c r="P16" t="n">
-        <v>925.5195068001389</v>
+        <v>925.5195068001387</v>
       </c>
       <c r="Q16" t="n">
-        <v>978.2509294445697</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R16" t="n">
         <v>939.7416828642702</v>
       </c>
       <c r="S16" t="n">
-        <v>853.8530069587249</v>
+        <v>853.8530069587248</v>
       </c>
       <c r="T16" t="n">
-        <v>763.9076237427576</v>
+        <v>763.9076237427574</v>
       </c>
       <c r="U16" t="n">
-        <v>614.9709421660805</v>
+        <v>614.9709421660806</v>
       </c>
       <c r="V16" t="n">
-        <v>500.5605481339492</v>
+        <v>500.5605481339489</v>
       </c>
       <c r="W16" t="n">
-        <v>351.4174722707437</v>
+        <v>351.4174722707436</v>
       </c>
       <c r="X16" t="n">
-        <v>263.7020155464818</v>
+        <v>263.7020155464815</v>
       </c>
       <c r="Y16" t="n">
-        <v>183.1835305767069</v>
+        <v>183.1835305767066</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>502.4034059332863</v>
+        <v>742.0969136447729</v>
       </c>
       <c r="C17" t="n">
-        <v>283.8867132571997</v>
+        <v>742.0969136447729</v>
       </c>
       <c r="D17" t="n">
-        <v>266.5980815799443</v>
+        <v>742.0969136447729</v>
       </c>
       <c r="E17" t="n">
-        <v>266.5980815799443</v>
+        <v>705.9363769147294</v>
       </c>
       <c r="F17" t="n">
-        <v>19.56501858889139</v>
+        <v>458.9033139236764</v>
       </c>
       <c r="G17" t="n">
-        <v>19.56501858889139</v>
+        <v>211.8702509326235</v>
       </c>
       <c r="H17" t="n">
         <v>19.56501858889139</v>
@@ -5519,7 +5519,7 @@
         <v>124.4399474973462</v>
       </c>
       <c r="L17" t="n">
-        <v>306.8231980260855</v>
+        <v>306.8231980260856</v>
       </c>
       <c r="M17" t="n">
         <v>526.3662512024591</v>
@@ -5528,10 +5528,10 @@
         <v>734.8297429586089</v>
       </c>
       <c r="O17" t="n">
-        <v>886.4882690646268</v>
+        <v>886.4882690646269</v>
       </c>
       <c r="P17" t="n">
-        <v>978.2509294445696</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="Q17" t="n">
         <v>978.2509294445697</v>
@@ -5558,7 +5558,7 @@
         <v>978.2509294445697</v>
       </c>
       <c r="Y17" t="n">
-        <v>738.5574217330831</v>
+        <v>978.2509294445697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>255.6807068484033</v>
+        <v>52.3638543468238</v>
       </c>
       <c r="C18" t="n">
-        <v>231.6735018316014</v>
+        <v>28.35664933002184</v>
       </c>
       <c r="D18" t="n">
-        <v>231.6735018316014</v>
+        <v>28.35664933002184</v>
       </c>
       <c r="E18" t="n">
-        <v>222.8818710904709</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F18" t="n">
-        <v>222.8818710904709</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G18" t="n">
-        <v>222.8818710904709</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5898257028427</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I18" t="n">
         <v>19.56501858889139</v>
@@ -5598,16 +5598,16 @@
         <v>146.1858617037014</v>
       </c>
       <c r="L18" t="n">
-        <v>239.4861551219973</v>
+        <v>377.8476075409625</v>
       </c>
       <c r="M18" t="n">
-        <v>481.6032601595283</v>
+        <v>423.6235300581739</v>
       </c>
       <c r="N18" t="n">
-        <v>481.6032601595283</v>
+        <v>665.7406350957049</v>
       </c>
       <c r="O18" t="n">
-        <v>723.7203651970593</v>
+        <v>907.8577401332359</v>
       </c>
       <c r="P18" t="n">
         <v>907.8577401332359</v>
@@ -5619,25 +5619,25 @@
         <v>978.2509294445697</v>
       </c>
       <c r="S18" t="n">
-        <v>856.5998765477351</v>
+        <v>955.4276730184628</v>
       </c>
       <c r="T18" t="n">
-        <v>804.8912796032532</v>
+        <v>753.2732518096558</v>
       </c>
       <c r="U18" t="n">
-        <v>727.1140107416022</v>
+        <v>525.0501586836797</v>
       </c>
       <c r="V18" t="n">
-        <v>642.4077267741845</v>
+        <v>440.343874716262</v>
       </c>
       <c r="W18" t="n">
-        <v>538.6161943103079</v>
+        <v>336.5523422523854</v>
       </c>
       <c r="X18" t="n">
-        <v>481.2105183691002</v>
+        <v>279.1466663111777</v>
       </c>
       <c r="Y18" t="n">
-        <v>423.8960438684713</v>
+        <v>220.5791913668918</v>
       </c>
     </row>
     <row r="19">
@@ -5680,16 +5680,16 @@
         <v>376.9634333877044</v>
       </c>
       <c r="M19" t="n">
-        <v>417.1795852469675</v>
+        <v>564.6315376084325</v>
       </c>
       <c r="N19" t="n">
-        <v>609.3260556858545</v>
+        <v>756.7780080473195</v>
       </c>
       <c r="O19" t="n">
-        <v>634.5923816332372</v>
+        <v>782.0443339947022</v>
       </c>
       <c r="P19" t="n">
-        <v>780.143358506494</v>
+        <v>821.9210402957889</v>
       </c>
       <c r="Q19" t="n">
         <v>821.9210402957889</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>767.5173164956781</v>
+        <v>534.9654311323164</v>
       </c>
       <c r="C20" t="n">
-        <v>767.5173164956781</v>
+        <v>534.9654311323164</v>
       </c>
       <c r="D20" t="n">
-        <v>767.5173164956781</v>
+        <v>534.9654311323164</v>
       </c>
       <c r="E20" t="n">
-        <v>767.5173164956781</v>
+        <v>299.6230027983972</v>
       </c>
       <c r="F20" t="n">
-        <v>520.4842535046251</v>
+        <v>52.58993980734428</v>
       </c>
       <c r="G20" t="n">
-        <v>273.4511905135722</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H20" t="n">
-        <v>81.14595816984017</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I20" t="n">
         <v>19.56501858889139</v>
@@ -5753,16 +5753,16 @@
         <v>19.56501858889139</v>
       </c>
       <c r="K20" t="n">
-        <v>124.4399474973463</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L20" t="n">
-        <v>306.8231980260857</v>
+        <v>306.8231980260856</v>
       </c>
       <c r="M20" t="n">
-        <v>526.3662512024592</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N20" t="n">
-        <v>734.829742958609</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O20" t="n">
         <v>886.4882690646269</v>
@@ -5777,25 +5777,25 @@
         <v>978.2509294445697</v>
       </c>
       <c r="S20" t="n">
-        <v>978.2509294445697</v>
+        <v>917.9053252173511</v>
       </c>
       <c r="T20" t="n">
-        <v>978.2509294445697</v>
+        <v>917.9053252173511</v>
       </c>
       <c r="U20" t="n">
-        <v>948.1343795749236</v>
+        <v>917.9053252173511</v>
       </c>
       <c r="V20" t="n">
-        <v>767.5173164956781</v>
+        <v>737.2882621381056</v>
       </c>
       <c r="W20" t="n">
-        <v>767.5173164956781</v>
+        <v>534.9654311323164</v>
       </c>
       <c r="X20" t="n">
-        <v>767.5173164956781</v>
+        <v>534.9654311323164</v>
       </c>
       <c r="Y20" t="n">
-        <v>767.5173164956781</v>
+        <v>534.9654311323164</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>52.3638543468238</v>
+        <v>103.3887394982646</v>
       </c>
       <c r="C21" t="n">
-        <v>28.35664933002184</v>
+        <v>79.38153448146259</v>
       </c>
       <c r="D21" t="n">
-        <v>28.35664933002184</v>
+        <v>79.38153448146259</v>
       </c>
       <c r="E21" t="n">
-        <v>19.56501858889139</v>
+        <v>70.58990374033215</v>
       </c>
       <c r="F21" t="n">
-        <v>19.56501858889139</v>
+        <v>70.58990374033215</v>
       </c>
       <c r="G21" t="n">
-        <v>19.56501858889139</v>
+        <v>70.58990374033215</v>
       </c>
       <c r="H21" t="n">
-        <v>19.56501858889139</v>
+        <v>70.58990374033215</v>
       </c>
       <c r="I21" t="n">
         <v>19.56501858889139</v>
@@ -5838,43 +5838,43 @@
         <v>251.2267644261524</v>
       </c>
       <c r="M21" t="n">
-        <v>423.6235300581739</v>
+        <v>493.3438694636834</v>
       </c>
       <c r="N21" t="n">
-        <v>665.7406350957049</v>
+        <v>735.4609745012144</v>
       </c>
       <c r="O21" t="n">
-        <v>907.8577401332359</v>
+        <v>977.5780795387454</v>
       </c>
       <c r="P21" t="n">
-        <v>907.8577401332359</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="Q21" t="n">
         <v>978.2509294445697</v>
       </c>
       <c r="R21" t="n">
-        <v>978.2509294445697</v>
+        <v>877.5769898880285</v>
       </c>
       <c r="S21" t="n">
-        <v>804.9818487541377</v>
+        <v>854.7537334619216</v>
       </c>
       <c r="T21" t="n">
-        <v>602.8274275453307</v>
+        <v>652.5993122531146</v>
       </c>
       <c r="U21" t="n">
-        <v>523.7971582400227</v>
+        <v>574.8220433914635</v>
       </c>
       <c r="V21" t="n">
-        <v>439.090874272605</v>
+        <v>490.1157594240458</v>
       </c>
       <c r="W21" t="n">
-        <v>335.2993418087284</v>
+        <v>386.3242269601692</v>
       </c>
       <c r="X21" t="n">
-        <v>277.8936658675207</v>
+        <v>178.4727267546364</v>
       </c>
       <c r="Y21" t="n">
-        <v>70.13336710256677</v>
+        <v>121.1582522540075</v>
       </c>
     </row>
     <row r="22">
@@ -5908,25 +5908,25 @@
         <v>19.56501858889139</v>
       </c>
       <c r="J22" t="n">
-        <v>75.05508616605587</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K22" t="n">
-        <v>201.2222489657637</v>
+        <v>95.54797839359372</v>
       </c>
       <c r="L22" t="n">
-        <v>229.5114810262394</v>
+        <v>271.2891628155344</v>
       </c>
       <c r="M22" t="n">
-        <v>269.7276328855025</v>
+        <v>458.9572670362625</v>
       </c>
       <c r="N22" t="n">
-        <v>461.8741033243895</v>
+        <v>651.1037374751495</v>
       </c>
       <c r="O22" t="n">
-        <v>613.6693281163339</v>
+        <v>676.3700634225322</v>
       </c>
       <c r="P22" t="n">
-        <v>759.2203049895905</v>
+        <v>821.9210402957889</v>
       </c>
       <c r="Q22" t="n">
         <v>821.9210402957889</v>
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>937.9758792159969</v>
+        <v>789.866596269901</v>
       </c>
       <c r="C23" t="n">
-        <v>719.4591865399102</v>
+        <v>571.3499035938144</v>
       </c>
       <c r="D23" t="n">
-        <v>719.4591865399102</v>
+        <v>527.1539541961781</v>
       </c>
       <c r="E23" t="n">
-        <v>484.116758205991</v>
+        <v>291.811525862259</v>
       </c>
       <c r="F23" t="n">
-        <v>223.5766776807086</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="G23" t="n">
-        <v>223.5766776807086</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="H23" t="n">
-        <v>31.27144533697651</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="I23" t="n">
-        <v>31.27144533697651</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="J23" t="n">
         <v>168.1345916917589</v>
       </c>
       <c r="K23" t="n">
-        <v>420.4614729616787</v>
+        <v>273.0095206002137</v>
       </c>
       <c r="L23" t="n">
-        <v>602.8447234904181</v>
+        <v>455.392771128953</v>
       </c>
       <c r="M23" t="n">
-        <v>822.3877766667916</v>
+        <v>822.3877766667915</v>
       </c>
       <c r="N23" t="n">
         <v>1178.303220784406</v>
       </c>
       <c r="O23" t="n">
-        <v>1332.669477473948</v>
+        <v>1329.961746890424</v>
       </c>
       <c r="P23" t="n">
         <v>1424.432137853891</v>
@@ -6020,19 +6020,19 @@
         <v>1488.734053777939</v>
       </c>
       <c r="U23" t="n">
-        <v>1385.296573634192</v>
+        <v>1488.734053777939</v>
       </c>
       <c r="V23" t="n">
-        <v>1385.296573634192</v>
+        <v>1488.734053777939</v>
       </c>
       <c r="W23" t="n">
-        <v>1385.296573634192</v>
+        <v>1488.734053777939</v>
       </c>
       <c r="X23" t="n">
-        <v>1385.296573634192</v>
+        <v>1265.714119781185</v>
       </c>
       <c r="Y23" t="n">
-        <v>1145.603065922705</v>
+        <v>1026.020612069698</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>214.516105359234</v>
+        <v>304.5409124731852</v>
       </c>
       <c r="C24" t="n">
-        <v>40.06307607810696</v>
+        <v>130.0878831920582</v>
       </c>
       <c r="D24" t="n">
-        <v>40.06307607810696</v>
+        <v>130.0878831920582</v>
       </c>
       <c r="E24" t="n">
-        <v>31.27144533697651</v>
+        <v>121.2962524509278</v>
       </c>
       <c r="F24" t="n">
-        <v>31.27144533697651</v>
+        <v>121.2962524509278</v>
       </c>
       <c r="G24" t="n">
-        <v>31.27144533697651</v>
+        <v>121.2962524509278</v>
       </c>
       <c r="H24" t="n">
-        <v>31.27144533697651</v>
+        <v>121.2962524509278</v>
       </c>
       <c r="I24" t="n">
-        <v>31.27144533697651</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="J24" t="n">
-        <v>31.27144533697651</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="K24" t="n">
-        <v>157.8922884517865</v>
+        <v>157.8922884517866</v>
       </c>
       <c r="L24" t="n">
-        <v>389.5540342890474</v>
+        <v>389.5540342890476</v>
       </c>
       <c r="M24" t="n">
-        <v>711.871586542798</v>
+        <v>711.8715865427982</v>
       </c>
       <c r="N24" t="n">
         <v>1058.426938706353</v>
       </c>
       <c r="O24" t="n">
-        <v>1309.041702601315</v>
+        <v>1309.041702601316</v>
       </c>
       <c r="P24" t="n">
         <v>1493.179077537492</v>
@@ -6093,25 +6093,25 @@
         <v>1563.572266848826</v>
       </c>
       <c r="S24" t="n">
-        <v>1390.303186158394</v>
+        <v>1507.243379229817</v>
       </c>
       <c r="T24" t="n">
-        <v>1188.148764949587</v>
+        <v>1305.088958021011</v>
       </c>
       <c r="U24" t="n">
-        <v>959.9256718236105</v>
+        <v>1076.865864895034</v>
       </c>
       <c r="V24" t="n">
-        <v>875.2193878561928</v>
+        <v>992.1595809276166</v>
       </c>
       <c r="W24" t="n">
-        <v>647.8974170854636</v>
+        <v>888.36804846374</v>
       </c>
       <c r="X24" t="n">
-        <v>440.0459168799308</v>
+        <v>680.5165482582072</v>
       </c>
       <c r="Y24" t="n">
-        <v>382.731442379302</v>
+        <v>472.7562494932533</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.44119010109561</v>
+        <v>85.24615351589188</v>
       </c>
       <c r="C25" t="n">
-        <v>63.95083143751376</v>
+        <v>66.75579485231002</v>
       </c>
       <c r="D25" t="n">
-        <v>64.27346551094851</v>
+        <v>66.75579485231002</v>
       </c>
       <c r="E25" t="n">
         <v>66.75579485231002</v>
@@ -6142,55 +6142,55 @@
         <v>37.64505859727325</v>
       </c>
       <c r="I25" t="n">
-        <v>31.27144533697651</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="J25" t="n">
-        <v>59.54838116367824</v>
+        <v>86.76151291414099</v>
       </c>
       <c r="K25" t="n">
-        <v>185.7155439633861</v>
+        <v>212.9286757138489</v>
       </c>
       <c r="L25" t="n">
-        <v>361.4567283853268</v>
+        <v>364.2616918001229</v>
       </c>
       <c r="M25" t="n">
-        <v>549.1248326060548</v>
+        <v>404.4778436593861</v>
       </c>
       <c r="N25" t="n">
-        <v>593.8193506834768</v>
+        <v>596.6243140982731</v>
       </c>
       <c r="O25" t="n">
-        <v>619.0856766308596</v>
+        <v>621.8906400456558</v>
       </c>
       <c r="P25" t="n">
-        <v>764.6366535041162</v>
+        <v>767.4416169189125</v>
       </c>
       <c r="Q25" t="n">
-        <v>827.3373888103146</v>
+        <v>830.1423522251108</v>
       </c>
       <c r="R25" t="n">
-        <v>798.9998723205849</v>
+        <v>801.8048357353812</v>
       </c>
       <c r="S25" t="n">
-        <v>723.2829265056095</v>
+        <v>726.0878899204057</v>
       </c>
       <c r="T25" t="n">
-        <v>643.5092733802119</v>
+        <v>646.3142367950081</v>
       </c>
       <c r="U25" t="n">
-        <v>504.744321894105</v>
+        <v>507.5492853089012</v>
       </c>
       <c r="V25" t="n">
-        <v>400.5056579525432</v>
+        <v>403.3106213673394</v>
       </c>
       <c r="W25" t="n">
-        <v>261.5343121799076</v>
+        <v>264.3392755947038</v>
       </c>
       <c r="X25" t="n">
-        <v>183.9905855462153</v>
+        <v>186.7955489610115</v>
       </c>
       <c r="Y25" t="n">
-        <v>113.6438306670103</v>
+        <v>116.4487940818065</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>902.326943907012</v>
+        <v>868.632400326396</v>
       </c>
       <c r="C26" t="n">
-        <v>902.326943907012</v>
+        <v>868.632400326396</v>
       </c>
       <c r="D26" t="n">
-        <v>902.326943907012</v>
+        <v>868.632400326396</v>
       </c>
       <c r="E26" t="n">
-        <v>902.326943907012</v>
+        <v>611.3919034410926</v>
       </c>
       <c r="F26" t="n">
-        <v>619.8887948303453</v>
+        <v>328.9537543644259</v>
       </c>
       <c r="G26" t="n">
-        <v>328.9537543644258</v>
+        <v>328.9537543644259</v>
       </c>
       <c r="H26" t="n">
-        <v>114.7504534693095</v>
+        <v>114.7504534693096</v>
       </c>
       <c r="I26" t="n">
-        <v>31.27144533697651</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="J26" t="n">
-        <v>146.6722947045473</v>
+        <v>146.6722947045472</v>
       </c>
       <c r="K26" t="n">
-        <v>251.5472236130021</v>
+        <v>251.547223613002</v>
       </c>
       <c r="L26" t="n">
-        <v>522.4873926741117</v>
+        <v>522.4873926741121</v>
       </c>
       <c r="M26" t="n">
-        <v>742.0304458504852</v>
+        <v>868.0201012247389</v>
       </c>
       <c r="N26" t="n">
-        <v>1076.483592980888</v>
+        <v>1076.483592980889</v>
       </c>
       <c r="O26" t="n">
-        <v>1228.142119086906</v>
+        <v>1228.142119086907</v>
       </c>
       <c r="P26" t="n">
-        <v>1445.894434841102</v>
+        <v>1445.894434841103</v>
       </c>
       <c r="Q26" t="n">
         <v>1563.572266848826</v>
       </c>
       <c r="R26" t="n">
-        <v>1541.674198297441</v>
+        <v>1541.674198297442</v>
       </c>
       <c r="S26" t="n">
-        <v>1459.430525518839</v>
+        <v>1541.674198297442</v>
       </c>
       <c r="T26" t="n">
-        <v>1459.430525518839</v>
+        <v>1444.937916675171</v>
       </c>
       <c r="U26" t="n">
-        <v>1334.094976823707</v>
+        <v>1444.937916675171</v>
       </c>
       <c r="V26" t="n">
-        <v>1131.579845193077</v>
+        <v>1444.937916675171</v>
       </c>
       <c r="W26" t="n">
-        <v>1131.579845193077</v>
+        <v>1444.937916675171</v>
       </c>
       <c r="X26" t="n">
-        <v>1131.579845193077</v>
+        <v>1388.276060940448</v>
       </c>
       <c r="Y26" t="n">
-        <v>1131.579845193077</v>
+        <v>1126.684484677577</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6279,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>413.5104734444379</v>
+        <v>400.9000937248751</v>
       </c>
       <c r="C27" t="n">
-        <v>239.0574441633109</v>
+        <v>354.9948201566889</v>
       </c>
       <c r="D27" t="n">
-        <v>218.6707902150005</v>
+        <v>308.6955973289519</v>
       </c>
       <c r="E27" t="n">
-        <v>187.9810909224858</v>
+        <v>149.4581423234964</v>
       </c>
       <c r="F27" t="n">
-        <v>169.9942886623116</v>
+        <v>131.4713400633221</v>
       </c>
       <c r="G27" t="n">
-        <v>31.27144533697651</v>
+        <v>121.2962524509278</v>
       </c>
       <c r="H27" t="n">
-        <v>31.27144533697651</v>
+        <v>121.2962524509278</v>
       </c>
       <c r="I27" t="n">
-        <v>31.27144533697651</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="J27" t="n">
-        <v>31.27144533697651</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="K27" t="n">
         <v>157.8922884517865</v>
       </c>
       <c r="L27" t="n">
-        <v>389.5540342890474</v>
+        <v>389.5540342890475</v>
       </c>
       <c r="M27" t="n">
-        <v>711.871586542798</v>
+        <v>711.8715865427982</v>
       </c>
       <c r="N27" t="n">
         <v>1058.426938706353</v>
       </c>
       <c r="O27" t="n">
-        <v>1309.041702601315</v>
+        <v>1309.041702601316</v>
       </c>
       <c r="P27" t="n">
         <v>1493.179077537492</v>
@@ -6330,25 +6330,25 @@
         <v>1563.572266848826</v>
       </c>
       <c r="S27" t="n">
-        <v>1390.303186158394</v>
+        <v>1518.850941871335</v>
       </c>
       <c r="T27" t="n">
-        <v>1188.148764949587</v>
+        <v>1445.244276375469</v>
       </c>
       <c r="U27" t="n">
-        <v>1088.473427536551</v>
+        <v>1217.021183249493</v>
       </c>
       <c r="V27" t="n">
-        <v>981.8690750177494</v>
+        <v>1110.416830730691</v>
       </c>
       <c r="W27" t="n">
-        <v>856.1794740024886</v>
+        <v>856.1794740024891</v>
       </c>
       <c r="X27" t="n">
-        <v>660.938353516519</v>
+        <v>648.3279737969563</v>
       </c>
       <c r="Y27" t="n">
-        <v>581.7258104645059</v>
+        <v>440.5676750320023</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.65987255194258</v>
+        <v>235.5999558940089</v>
       </c>
       <c r="C28" t="n">
-        <v>31.27144533697651</v>
+        <v>195.2115286790427</v>
       </c>
       <c r="D28" t="n">
-        <v>31.27144533697651</v>
+        <v>173.6426449796478</v>
       </c>
       <c r="E28" t="n">
-        <v>31.27144533697651</v>
+        <v>154.2773071101955</v>
       </c>
       <c r="F28" t="n">
-        <v>31.27144533697651</v>
+        <v>135.9351153252259</v>
       </c>
       <c r="G28" t="n">
-        <v>31.27144533697651</v>
+        <v>94.80170501816788</v>
       </c>
       <c r="H28" t="n">
-        <v>31.27144533697651</v>
+        <v>59.54312714865753</v>
       </c>
       <c r="I28" t="n">
-        <v>31.27144533697651</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="J28" t="n">
-        <v>65.29921592692932</v>
+        <v>65.29921592692928</v>
       </c>
       <c r="K28" t="n">
-        <v>170.0040817394255</v>
+        <v>170.0040817394254</v>
       </c>
       <c r="L28" t="n">
-        <v>324.2829691741545</v>
+        <v>324.2829691741543</v>
       </c>
       <c r="M28" t="n">
-        <v>490.4887764076709</v>
+        <v>490.4887764076707</v>
       </c>
       <c r="N28" t="n">
-        <v>661.1729498593463</v>
+        <v>661.172949859346</v>
       </c>
       <c r="O28" t="n">
-        <v>812.4289311809823</v>
+        <v>812.428931180982</v>
       </c>
       <c r="P28" t="n">
-        <v>936.5176110670274</v>
+        <v>936.517611067027</v>
       </c>
       <c r="Q28" t="n">
-        <v>977.7560493860141</v>
+        <v>977.7560493860136</v>
       </c>
       <c r="R28" t="n">
-        <v>963.4031031825058</v>
+        <v>927.5204643448997</v>
       </c>
       <c r="S28" t="n">
-        <v>865.788088816146</v>
+        <v>829.9054499785399</v>
       </c>
       <c r="T28" t="n">
-        <v>764.1163671393642</v>
+        <v>728.233728301758</v>
       </c>
       <c r="U28" t="n">
-        <v>603.4533471018731</v>
+        <v>567.5707082642668</v>
       </c>
       <c r="V28" t="n">
-        <v>477.316614608927</v>
+        <v>441.4339757713208</v>
       </c>
       <c r="W28" t="n">
-        <v>316.4472002849072</v>
+        <v>441.4339757713208</v>
       </c>
       <c r="X28" t="n">
-        <v>217.0054050998307</v>
+        <v>380.9454884418972</v>
       </c>
       <c r="Y28" t="n">
-        <v>124.7605816692414</v>
+        <v>288.7006650113078</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>594.7441618256216</v>
+        <v>868.8007665673807</v>
       </c>
       <c r="C29" t="n">
-        <v>594.7441618256216</v>
+        <v>868.8007665673807</v>
       </c>
       <c r="D29" t="n">
-        <v>594.7441618256216</v>
+        <v>868.8007665673807</v>
       </c>
       <c r="E29" t="n">
-        <v>594.7441618256216</v>
+        <v>868.8007665673807</v>
       </c>
       <c r="F29" t="n">
-        <v>594.7441618256216</v>
+        <v>594.7441618256219</v>
       </c>
       <c r="G29" t="n">
-        <v>312.1906656946099</v>
+        <v>312.1906656946101</v>
       </c>
       <c r="H29" t="n">
-        <v>106.3689091344016</v>
+        <v>106.3689091344017</v>
       </c>
       <c r="I29" t="n">
-        <v>31.27144533697651</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="J29" t="n">
-        <v>154.8870463071905</v>
+        <v>154.8870463071904</v>
       </c>
       <c r="K29" t="n">
-        <v>393.9663821925419</v>
+        <v>259.7619752156453</v>
       </c>
       <c r="L29" t="n">
-        <v>576.3496327212812</v>
+        <v>576.3496327212811</v>
       </c>
       <c r="M29" t="n">
-        <v>795.8926858976547</v>
+        <v>795.8926858976546</v>
       </c>
       <c r="N29" t="n">
         <v>1004.356177653804</v>
       </c>
       <c r="O29" t="n">
-        <v>1211.71261588162</v>
+        <v>1290.219110736719</v>
       </c>
       <c r="P29" t="n">
         <v>1437.679683238459</v>
@@ -6485,28 +6485,28 @@
         <v>1563.572266848826</v>
       </c>
       <c r="R29" t="n">
-        <v>1563.572266848826</v>
+        <v>1550.055742632349</v>
       </c>
       <c r="S29" t="n">
-        <v>1489.710138405131</v>
+        <v>1476.193614188654</v>
       </c>
       <c r="T29" t="n">
-        <v>1401.355401117768</v>
+        <v>1387.838876901292</v>
       </c>
       <c r="U29" t="n">
-        <v>1284.401396757544</v>
+        <v>1270.884872541068</v>
       </c>
       <c r="V29" t="n">
-        <v>1090.267809461823</v>
+        <v>1270.884872541068</v>
       </c>
       <c r="W29" t="n">
-        <v>874.4284542395573</v>
+        <v>1270.884872541068</v>
       </c>
       <c r="X29" t="n">
-        <v>637.8919960263262</v>
+        <v>1270.884872541068</v>
       </c>
       <c r="Y29" t="n">
-        <v>594.7441618256216</v>
+        <v>1017.674840613105</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6516,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>708.2848711602037</v>
+        <v>525.2951404875631</v>
       </c>
       <c r="C30" t="n">
-        <v>533.8318418790767</v>
+        <v>350.8421112064361</v>
       </c>
       <c r="D30" t="n">
-        <v>384.8974322178254</v>
+        <v>201.9077015451848</v>
       </c>
       <c r="E30" t="n">
-        <v>316.5288466354267</v>
+        <v>42.67024653972931</v>
       </c>
       <c r="F30" t="n">
-        <v>169.9942886623116</v>
+        <v>33.06498861446296</v>
       </c>
       <c r="G30" t="n">
-        <v>31.27144533697651</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="H30" t="n">
-        <v>31.27144533697651</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="I30" t="n">
-        <v>31.27144533697651</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="J30" t="n">
-        <v>31.27144533697651</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="K30" t="n">
         <v>157.8922884517865</v>
       </c>
       <c r="L30" t="n">
-        <v>389.5540342890474</v>
+        <v>389.5540342890476</v>
       </c>
       <c r="M30" t="n">
-        <v>711.871586542798</v>
+        <v>711.8715865427982</v>
       </c>
       <c r="N30" t="n">
         <v>1058.426938706353</v>
       </c>
       <c r="O30" t="n">
-        <v>1309.041702601315</v>
+        <v>1309.041702601316</v>
       </c>
       <c r="P30" t="n">
         <v>1493.179077537492</v>
@@ -6567,25 +6567,25 @@
         <v>1563.572266848826</v>
       </c>
       <c r="S30" t="n">
-        <v>1390.303186158394</v>
+        <v>1527.232486206243</v>
       </c>
       <c r="T30" t="n">
-        <v>1325.078064997435</v>
+        <v>1462.007365045284</v>
       </c>
       <c r="U30" t="n">
-        <v>1233.784271919308</v>
+        <v>1370.713571967157</v>
       </c>
       <c r="V30" t="n">
         <v>1135.561463735414</v>
       </c>
       <c r="W30" t="n">
-        <v>1018.253407055061</v>
+        <v>881.3241070072127</v>
       </c>
       <c r="X30" t="n">
-        <v>947.331206897377</v>
+        <v>810.4019068495286</v>
       </c>
       <c r="Y30" t="n">
-        <v>876.5002081802718</v>
+        <v>693.5104775076311</v>
       </c>
     </row>
     <row r="31">
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>176.929145549653</v>
+        <v>176.9291455496532</v>
       </c>
       <c r="C31" t="n">
-        <v>144.9222626695948</v>
+        <v>144.922262669595</v>
       </c>
       <c r="D31" t="n">
-        <v>131.7349233051078</v>
+        <v>131.734923305108</v>
       </c>
       <c r="E31" t="n">
-        <v>120.7511297705635</v>
+        <v>120.7511297705636</v>
       </c>
       <c r="F31" t="n">
-        <v>110.7904823205018</v>
+        <v>110.7904823205019</v>
       </c>
       <c r="G31" t="n">
-        <v>78.03861634835187</v>
+        <v>78.03861634835178</v>
       </c>
       <c r="H31" t="n">
-        <v>51.16158281374956</v>
+        <v>51.16158281374962</v>
       </c>
       <c r="I31" t="n">
         <v>31.27144533697652</v>
       </c>
       <c r="J31" t="n">
-        <v>73.51396752957255</v>
+        <v>73.51396752957248</v>
       </c>
       <c r="K31" t="n">
-        <v>186.433584944712</v>
+        <v>186.4335849447119</v>
       </c>
       <c r="L31" t="n">
-        <v>348.9272239820843</v>
+        <v>348.927223982084</v>
       </c>
       <c r="M31" t="n">
         <v>523.3477828182436</v>
       </c>
       <c r="N31" t="n">
-        <v>702.2467078725617</v>
+        <v>702.2467078725621</v>
       </c>
       <c r="O31" t="n">
-        <v>861.7174407968408</v>
+        <v>861.7174407968413</v>
       </c>
       <c r="P31" t="n">
-        <v>994.0208722855291</v>
+        <v>994.0208722855295</v>
       </c>
       <c r="Q31" t="n">
         <v>1043.474062207159</v>
@@ -6646,25 +6646,25 @@
         <v>1001.620021500953</v>
       </c>
       <c r="S31" t="n">
-        <v>912.3865514695012</v>
+        <v>912.3865514695015</v>
       </c>
       <c r="T31" t="n">
-        <v>819.0963741276273</v>
+        <v>819.0963741276275</v>
       </c>
       <c r="U31" t="n">
-        <v>666.8148984250441</v>
+        <v>666.8148984250445</v>
       </c>
       <c r="V31" t="n">
-        <v>549.0597102670059</v>
+        <v>549.0597102670063</v>
       </c>
       <c r="W31" t="n">
-        <v>396.571840277894</v>
+        <v>396.5718402778944</v>
       </c>
       <c r="X31" t="n">
-        <v>305.5115894277253</v>
+        <v>305.5115894277257</v>
       </c>
       <c r="Y31" t="n">
-        <v>221.6483103320439</v>
+        <v>221.6483103320443</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>982.3991135446691</v>
+        <v>982.3991135446693</v>
       </c>
       <c r="C32" t="n">
-        <v>835.9546895232972</v>
+        <v>835.9546895232974</v>
       </c>
       <c r="D32" t="n">
-        <v>700.2070838355866</v>
+        <v>700.2070838355867</v>
       </c>
       <c r="E32" t="n">
-        <v>536.9369241563821</v>
+        <v>536.9369241563822</v>
       </c>
       <c r="F32" t="n">
         <v>348.4691122858144</v>
       </c>
       <c r="G32" t="n">
-        <v>151.5044090259938</v>
+        <v>151.5044090259939</v>
       </c>
       <c r="H32" t="n">
-        <v>31.27144533697651</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="I32" t="n">
-        <v>41.55399696217455</v>
+        <v>41.55399696217454</v>
       </c>
       <c r="J32" t="n">
-        <v>249.0551738254429</v>
+        <v>249.0551738254428</v>
       </c>
       <c r="K32" t="n">
-        <v>353.9301027338977</v>
+        <v>572.0200856038485</v>
       </c>
       <c r="L32" t="n">
-        <v>536.3133532626371</v>
+        <v>754.4033361325878</v>
       </c>
       <c r="M32" t="n">
-        <v>890.4161252979052</v>
+        <v>973.9463893089613</v>
       </c>
       <c r="N32" t="n">
-        <v>1098.879617054055</v>
+        <v>1182.409881065111</v>
       </c>
       <c r="O32" t="n">
-        <v>1250.538143160073</v>
+        <v>1334.068407171129</v>
       </c>
       <c r="P32" t="n">
-        <v>1342.300803540016</v>
+        <v>1425.831067551072</v>
       </c>
       <c r="Q32" t="n">
         <v>1552.078963043437</v>
@@ -6728,13 +6728,13 @@
         <v>1563.572266848826</v>
       </c>
       <c r="T32" t="n">
-        <v>1563.572266848826</v>
+        <v>1560.806322432654</v>
       </c>
       <c r="U32" t="n">
-        <v>1532.207055359793</v>
+        <v>1529.441110943622</v>
       </c>
       <c r="V32" t="n">
-        <v>1465.049765088563</v>
+        <v>1529.441110943622</v>
       </c>
       <c r="W32" t="n">
         <v>1465.049765088563</v>
@@ -6753,46 +6753,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>406.553653749378</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="C33" t="n">
-        <v>406.553653749378</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="D33" t="n">
-        <v>406.553653749378</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="E33" t="n">
-        <v>406.553653749378</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="F33" t="n">
-        <v>260.0190957762629</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="G33" t="n">
-        <v>121.2962524509278</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="H33" t="n">
-        <v>121.2962524509278</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="I33" t="n">
-        <v>31.27144533697651</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="J33" t="n">
-        <v>31.27144533697651</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="K33" t="n">
-        <v>157.8922884517865</v>
+        <v>157.8922884517866</v>
       </c>
       <c r="L33" t="n">
-        <v>389.5540342890474</v>
+        <v>389.5540342890476</v>
       </c>
       <c r="M33" t="n">
-        <v>711.871586542798</v>
+        <v>711.8715865427984</v>
       </c>
       <c r="N33" t="n">
         <v>1058.426938706353</v>
       </c>
       <c r="O33" t="n">
-        <v>1309.041702601315</v>
+        <v>1309.041702601316</v>
       </c>
       <c r="P33" t="n">
         <v>1493.179077537492</v>
@@ -6810,19 +6810,19 @@
         <v>1188.148764949587</v>
       </c>
       <c r="U33" t="n">
-        <v>1182.44376474265</v>
+        <v>959.925671823611</v>
       </c>
       <c r="V33" t="n">
-        <v>947.2916565109076</v>
+        <v>724.7735635918682</v>
       </c>
       <c r="W33" t="n">
-        <v>693.054299782706</v>
+        <v>470.5362068636666</v>
       </c>
       <c r="X33" t="n">
-        <v>485.2027995771732</v>
+        <v>262.6847066581337</v>
       </c>
       <c r="Y33" t="n">
-        <v>406.553653749378</v>
+        <v>199.4867823570445</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.27144533697651</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="C34" t="n">
-        <v>31.27144533697651</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="D34" t="n">
-        <v>31.27144533697651</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="E34" t="n">
-        <v>31.27144533697651</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="F34" t="n">
-        <v>31.27144533697651</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="G34" t="n">
-        <v>75.38089223851402</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="H34" t="n">
-        <v>75.38089223851402</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="I34" t="n">
-        <v>75.38089223851402</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="J34" t="n">
-        <v>75.38089223851402</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="K34" t="n">
-        <v>75.38089223851402</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="L34" t="n">
-        <v>103.6701242989897</v>
+        <v>59.56067739745219</v>
       </c>
       <c r="M34" t="n">
-        <v>143.8862761582528</v>
+        <v>99.77682925671527</v>
       </c>
       <c r="N34" t="n">
-        <v>188.5807942356748</v>
+        <v>144.4713473341373</v>
       </c>
       <c r="O34" t="n">
-        <v>213.8471201830575</v>
+        <v>213.8471201830577</v>
       </c>
       <c r="P34" t="n">
-        <v>213.8471201830575</v>
+        <v>213.8471201830577</v>
       </c>
       <c r="Q34" t="n">
-        <v>213.8471201830575</v>
+        <v>213.8471201830577</v>
       </c>
       <c r="R34" t="n">
-        <v>213.8471201830575</v>
+        <v>213.8471201830577</v>
       </c>
       <c r="S34" t="n">
-        <v>210.2024430227968</v>
+        <v>210.2024430227969</v>
       </c>
       <c r="T34" t="n">
-        <v>202.501058552114</v>
+        <v>202.5010585521141</v>
       </c>
       <c r="U34" t="n">
-        <v>135.8083757207219</v>
+        <v>135.808375720722</v>
       </c>
       <c r="V34" t="n">
-        <v>103.6419804338748</v>
+        <v>103.6419804338749</v>
       </c>
       <c r="W34" t="n">
-        <v>36.74290331595402</v>
+        <v>36.74290331595407</v>
       </c>
       <c r="X34" t="n">
-        <v>31.27144533697651</v>
+        <v>31.27144533697652</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.27144533697651</v>
+        <v>31.27144533697652</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>618.9547152468118</v>
+        <v>850.4597231075668</v>
       </c>
       <c r="C35" t="n">
-        <v>472.5102912254399</v>
+        <v>704.0152990861949</v>
       </c>
       <c r="D35" t="n">
-        <v>336.7626855377292</v>
+        <v>568.2676933984842</v>
       </c>
       <c r="E35" t="n">
-        <v>336.7626855377292</v>
+        <v>404.9975337192798</v>
       </c>
       <c r="F35" t="n">
-        <v>336.7626855377292</v>
+        <v>216.529721848712</v>
       </c>
       <c r="G35" t="n">
-        <v>139.7979822779087</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H35" t="n">
         <v>19.56501858889139</v>
@@ -6938,16 +6938,16 @@
         <v>19.56501858889139</v>
       </c>
       <c r="K35" t="n">
-        <v>124.4399474973465</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L35" t="n">
-        <v>306.8231980260858</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M35" t="n">
-        <v>526.3662512024594</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N35" t="n">
-        <v>734.8297429586091</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O35" t="n">
         <v>886.4882690646269</v>
@@ -6965,22 +6965,22 @@
         <v>978.2509294445697</v>
       </c>
       <c r="T35" t="n">
-        <v>975.4849850283981</v>
+        <v>975.484985028398</v>
       </c>
       <c r="U35" t="n">
-        <v>944.1197735393657</v>
+        <v>975.484985028398</v>
       </c>
       <c r="V35" t="n">
-        <v>835.5749791148349</v>
+        <v>975.484985028398</v>
       </c>
       <c r="W35" t="n">
-        <v>783.0364623918938</v>
+        <v>975.484985028398</v>
       </c>
       <c r="X35" t="n">
-        <v>783.0364623918938</v>
+        <v>975.484985028398</v>
       </c>
       <c r="Y35" t="n">
-        <v>783.0364623918938</v>
+        <v>975.484985028398</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.56501858889139</v>
+        <v>109.5898257028427</v>
       </c>
       <c r="C36" t="n">
-        <v>19.56501858889139</v>
+        <v>109.5898257028427</v>
       </c>
       <c r="D36" t="n">
-        <v>19.56501858889139</v>
+        <v>109.5898257028427</v>
       </c>
       <c r="E36" t="n">
-        <v>19.56501858889139</v>
+        <v>109.5898257028427</v>
       </c>
       <c r="F36" t="n">
-        <v>19.56501858889139</v>
+        <v>109.5898257028427</v>
       </c>
       <c r="G36" t="n">
-        <v>19.56501858889139</v>
+        <v>109.5898257028427</v>
       </c>
       <c r="H36" t="n">
-        <v>19.56501858889139</v>
+        <v>109.5898257028427</v>
       </c>
       <c r="I36" t="n">
         <v>19.56501858889139</v>
@@ -7020,46 +7020,46 @@
         <v>19.56501858889139</v>
       </c>
       <c r="L36" t="n">
-        <v>19.56501858889139</v>
+        <v>251.2267644261524</v>
       </c>
       <c r="M36" t="n">
-        <v>261.6821236264224</v>
+        <v>309.8793444333311</v>
       </c>
       <c r="N36" t="n">
-        <v>503.7992286639534</v>
+        <v>551.9964494708621</v>
       </c>
       <c r="O36" t="n">
-        <v>745.9163337014844</v>
+        <v>794.1135545083931</v>
       </c>
       <c r="P36" t="n">
-        <v>930.053708637661</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="Q36" t="n">
         <v>978.2509294445697</v>
       </c>
       <c r="R36" t="n">
-        <v>978.2509294445697</v>
+        <v>877.5769898880285</v>
       </c>
       <c r="S36" t="n">
-        <v>804.9818487541377</v>
+        <v>877.5769898880285</v>
       </c>
       <c r="T36" t="n">
-        <v>804.9818487541377</v>
+        <v>877.5769898880285</v>
       </c>
       <c r="U36" t="n">
-        <v>576.7587556281616</v>
+        <v>649.3538967620524</v>
       </c>
       <c r="V36" t="n">
-        <v>474.3583803448983</v>
+        <v>564.4743888994284</v>
       </c>
       <c r="W36" t="n">
-        <v>227.3253173538453</v>
+        <v>317.4413259083755</v>
       </c>
       <c r="X36" t="n">
-        <v>227.3253173538453</v>
+        <v>109.5898257028427</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.56501858889139</v>
+        <v>109.5898257028427</v>
       </c>
     </row>
     <row r="37">
@@ -7081,58 +7081,58 @@
         <v>19.56501858889139</v>
       </c>
       <c r="F37" t="n">
-        <v>19.56501858889139</v>
+        <v>63.67446549042909</v>
       </c>
       <c r="G37" t="n">
-        <v>63.67446549042891</v>
+        <v>63.67446549042909</v>
       </c>
       <c r="H37" t="n">
-        <v>63.67446549042891</v>
+        <v>63.67446549042909</v>
       </c>
       <c r="I37" t="n">
-        <v>63.67446549042891</v>
+        <v>63.67446549042909</v>
       </c>
       <c r="J37" t="n">
-        <v>63.67446549042891</v>
+        <v>63.67446549042909</v>
       </c>
       <c r="K37" t="n">
-        <v>63.67446549042891</v>
+        <v>63.67446549042909</v>
       </c>
       <c r="L37" t="n">
-        <v>91.96369755090458</v>
+        <v>91.96369755090475</v>
       </c>
       <c r="M37" t="n">
-        <v>132.1798494101677</v>
+        <v>132.1798494101678</v>
       </c>
       <c r="N37" t="n">
-        <v>176.8743674875897</v>
+        <v>176.8743674875899</v>
       </c>
       <c r="O37" t="n">
-        <v>202.1406934349724</v>
+        <v>202.1406934349726</v>
       </c>
       <c r="P37" t="n">
-        <v>202.1406934349724</v>
+        <v>202.1406934349726</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.1406934349724</v>
+        <v>202.1406934349726</v>
       </c>
       <c r="R37" t="n">
-        <v>202.1406934349724</v>
+        <v>202.1406934349726</v>
       </c>
       <c r="S37" t="n">
-        <v>198.4960162747116</v>
+        <v>198.4960162747118</v>
       </c>
       <c r="T37" t="n">
-        <v>190.7946318040289</v>
+        <v>190.794631804029</v>
       </c>
       <c r="U37" t="n">
         <v>124.1019489726368</v>
       </c>
       <c r="V37" t="n">
-        <v>91.9355536857897</v>
+        <v>91.93555368578976</v>
       </c>
       <c r="W37" t="n">
-        <v>25.03647656786891</v>
+        <v>25.03647656786894</v>
       </c>
       <c r="X37" t="n">
         <v>19.56501858889139</v>
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>491.5359538276808</v>
+        <v>222.6737652198664</v>
       </c>
       <c r="C38" t="n">
-        <v>491.5359538276808</v>
+        <v>139.7979822779087</v>
       </c>
       <c r="D38" t="n">
-        <v>491.5359538276808</v>
+        <v>139.7979822779087</v>
       </c>
       <c r="E38" t="n">
-        <v>328.2657941484764</v>
+        <v>139.7979822779087</v>
       </c>
       <c r="F38" t="n">
         <v>139.7979822779087</v>
@@ -7175,16 +7175,16 @@
         <v>19.56501858889139</v>
       </c>
       <c r="K38" t="n">
-        <v>124.4399474973463</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L38" t="n">
-        <v>306.8231980260857</v>
+        <v>306.8231980260856</v>
       </c>
       <c r="M38" t="n">
-        <v>526.3662512024592</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N38" t="n">
-        <v>734.829742958609</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O38" t="n">
         <v>886.4882690646269</v>
@@ -7202,22 +7202,22 @@
         <v>978.2509294445697</v>
       </c>
       <c r="T38" t="n">
-        <v>975.4849850283981</v>
+        <v>975.484985028398</v>
       </c>
       <c r="U38" t="n">
-        <v>944.1197735393657</v>
+        <v>944.1197735393656</v>
       </c>
       <c r="V38" t="n">
-        <v>835.5749791148349</v>
+        <v>835.5749791148348</v>
       </c>
       <c r="W38" t="n">
-        <v>835.5749791148349</v>
+        <v>705.3244167637605</v>
       </c>
       <c r="X38" t="n">
-        <v>684.6273137727949</v>
+        <v>554.3767514217204</v>
       </c>
       <c r="Y38" t="n">
-        <v>517.006074716023</v>
+        <v>386.7555123649485</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>178.8024735943469</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C39" t="n">
-        <v>178.8024735943469</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D39" t="n">
-        <v>178.8024735943469</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E39" t="n">
         <v>19.56501858889139</v>
@@ -7260,10 +7260,10 @@
         <v>377.8476075409625</v>
       </c>
       <c r="M39" t="n">
-        <v>423.6235300581739</v>
+        <v>619.9647125784935</v>
       </c>
       <c r="N39" t="n">
-        <v>665.7406350957049</v>
+        <v>862.0818176160245</v>
       </c>
       <c r="O39" t="n">
         <v>907.8577401332359</v>
@@ -7281,22 +7281,22 @@
         <v>978.2509294445697</v>
       </c>
       <c r="T39" t="n">
-        <v>776.0965082357627</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="U39" t="n">
-        <v>660.9876448171426</v>
+        <v>750.0278363185936</v>
       </c>
       <c r="V39" t="n">
-        <v>425.8355365853998</v>
+        <v>514.8757280868508</v>
       </c>
       <c r="W39" t="n">
-        <v>178.8024735943469</v>
+        <v>435.1768175593782</v>
       </c>
       <c r="X39" t="n">
-        <v>178.8024735943469</v>
+        <v>227.3253173538453</v>
       </c>
       <c r="Y39" t="n">
-        <v>178.8024735943469</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="40">
@@ -7306,70 +7306,70 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>59.62134107872438</v>
+        <v>59.62134107872436</v>
       </c>
       <c r="C40" t="n">
-        <v>63.67446549042891</v>
+        <v>59.62134107872436</v>
       </c>
       <c r="D40" t="n">
-        <v>63.67446549042891</v>
+        <v>59.62134107872436</v>
       </c>
       <c r="E40" t="n">
-        <v>63.67446549042891</v>
+        <v>59.62134107872436</v>
       </c>
       <c r="F40" t="n">
-        <v>63.67446549042891</v>
+        <v>59.62134107872436</v>
       </c>
       <c r="G40" t="n">
-        <v>63.67446549042891</v>
+        <v>63.67446549042909</v>
       </c>
       <c r="H40" t="n">
-        <v>63.67446549042891</v>
+        <v>63.67446549042909</v>
       </c>
       <c r="I40" t="n">
-        <v>63.67446549042891</v>
+        <v>63.67446549042909</v>
       </c>
       <c r="J40" t="n">
-        <v>63.67446549042891</v>
+        <v>63.67446549042909</v>
       </c>
       <c r="K40" t="n">
-        <v>63.67446549042891</v>
+        <v>63.67446549042909</v>
       </c>
       <c r="L40" t="n">
-        <v>91.96369755090458</v>
+        <v>91.96369755090475</v>
       </c>
       <c r="M40" t="n">
-        <v>132.1798494101677</v>
+        <v>132.1798494101678</v>
       </c>
       <c r="N40" t="n">
-        <v>176.8743674875897</v>
+        <v>176.8743674875899</v>
       </c>
       <c r="O40" t="n">
-        <v>202.1406934349724</v>
+        <v>202.1406934349726</v>
       </c>
       <c r="P40" t="n">
-        <v>202.1406934349724</v>
+        <v>202.1406934349726</v>
       </c>
       <c r="Q40" t="n">
-        <v>202.1406934349724</v>
+        <v>202.1406934349726</v>
       </c>
       <c r="R40" t="n">
-        <v>202.1406934349724</v>
+        <v>202.1406934349726</v>
       </c>
       <c r="S40" t="n">
-        <v>198.4960162747116</v>
+        <v>198.4960162747118</v>
       </c>
       <c r="T40" t="n">
-        <v>190.7946318040289</v>
+        <v>190.794631804029</v>
       </c>
       <c r="U40" t="n">
         <v>124.1019489726368</v>
       </c>
       <c r="V40" t="n">
-        <v>91.9355536857897</v>
+        <v>91.93555368578976</v>
       </c>
       <c r="W40" t="n">
-        <v>25.03647656786891</v>
+        <v>25.03647656786894</v>
       </c>
       <c r="X40" t="n">
         <v>19.56501858889139</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.5980815799443</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C41" t="n">
         <v>19.56501858889139</v>
@@ -7424,37 +7424,37 @@
         <v>734.8297429586089</v>
       </c>
       <c r="O41" t="n">
-        <v>886.4882690646268</v>
+        <v>886.4882690646269</v>
       </c>
       <c r="P41" t="n">
-        <v>978.2509294445696</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="Q41" t="n">
         <v>978.2509294445697</v>
       </c>
       <c r="R41" t="n">
-        <v>978.2509294445697</v>
+        <v>942.1173805930384</v>
       </c>
       <c r="S41" t="n">
-        <v>978.2509294445697</v>
+        <v>845.6382275142886</v>
       </c>
       <c r="T41" t="n">
-        <v>978.2509294445697</v>
+        <v>845.6382275142886</v>
       </c>
       <c r="U41" t="n">
-        <v>978.2509294445697</v>
+        <v>706.0671985190102</v>
       </c>
       <c r="V41" t="n">
-        <v>978.2509294445697</v>
+        <v>489.3165865882333</v>
       </c>
       <c r="W41" t="n">
-        <v>739.7945495872493</v>
+        <v>250.860206730913</v>
       </c>
       <c r="X41" t="n">
-        <v>739.7945495872493</v>
+        <v>250.860206730913</v>
       </c>
       <c r="Y41" t="n">
-        <v>492.7614865961964</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>215.8859367712062</v>
+        <v>215.8859367712061</v>
       </c>
       <c r="C42" t="n">
-        <v>155.745182902873</v>
+        <v>155.7451829028729</v>
       </c>
       <c r="D42" t="n">
-        <v>121.1230486544156</v>
+        <v>121.1230486544155</v>
       </c>
       <c r="E42" t="n">
-        <v>76.19786906175389</v>
+        <v>76.19786906175375</v>
       </c>
       <c r="F42" t="n">
         <v>43.97558650143272</v>
@@ -7491,22 +7491,22 @@
         <v>19.56501858889139</v>
       </c>
       <c r="K42" t="n">
-        <v>146.1858617037014</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L42" t="n">
-        <v>377.8476075409625</v>
+        <v>251.2267644261524</v>
       </c>
       <c r="M42" t="n">
-        <v>619.9647125784935</v>
+        <v>493.3438694636834</v>
       </c>
       <c r="N42" t="n">
-        <v>619.9647125784935</v>
+        <v>735.4609745012144</v>
       </c>
       <c r="O42" t="n">
-        <v>723.7203651970593</v>
+        <v>977.5780795387454</v>
       </c>
       <c r="P42" t="n">
-        <v>907.8577401332359</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="Q42" t="n">
         <v>978.2509294445697</v>
@@ -7521,7 +7521,7 @@
         <v>831.4519783709184</v>
       </c>
       <c r="U42" t="n">
-        <v>717.5411606577361</v>
+        <v>717.5411606577362</v>
       </c>
       <c r="V42" t="n">
         <v>596.7013278387873</v>
@@ -7533,7 +7533,7 @@
         <v>363.2370217306405</v>
       </c>
       <c r="Y42" t="n">
-        <v>269.7889983784804</v>
+        <v>269.7889983784803</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>164.0550349549771</v>
+        <v>323.5418912469526</v>
       </c>
       <c r="C43" t="n">
-        <v>164.0550349549771</v>
+        <v>268.9179837318395</v>
       </c>
       <c r="D43" t="n">
-        <v>128.2506709554352</v>
+        <v>233.1136197322976</v>
       </c>
       <c r="E43" t="n">
-        <v>94.6498527858359</v>
+        <v>199.5128015626983</v>
       </c>
       <c r="F43" t="n">
-        <v>62.07218070071937</v>
+        <v>166.9351294775817</v>
       </c>
       <c r="G43" t="n">
-        <v>62.07218070071937</v>
+        <v>111.5662388703767</v>
       </c>
       <c r="H43" t="n">
-        <v>62.07218070071937</v>
+        <v>62.07218070071939</v>
       </c>
       <c r="I43" t="n">
         <v>19.56501858889139</v>
       </c>
       <c r="J43" t="n">
-        <v>39.64059493667011</v>
+        <v>39.6405949366701</v>
       </c>
       <c r="K43" t="n">
         <v>130.3932665069922</v>
@@ -7576,43 +7576,43 @@
         <v>270.7199596995471</v>
       </c>
       <c r="M43" t="n">
-        <v>422.9735726908894</v>
+        <v>422.9735726908893</v>
       </c>
       <c r="N43" t="n">
-        <v>579.7055519003907</v>
+        <v>579.7055519003906</v>
       </c>
       <c r="O43" t="n">
-        <v>717.0093389798526</v>
+        <v>717.0093389798525</v>
       </c>
       <c r="P43" t="n">
-        <v>827.1458246237236</v>
+        <v>827.1458246237235</v>
       </c>
       <c r="Q43" t="n">
-        <v>854.4320687005361</v>
+        <v>854.432068700536</v>
       </c>
       <c r="R43" t="n">
-        <v>789.9610033592752</v>
+        <v>793.5342776454722</v>
       </c>
       <c r="S43" t="n">
-        <v>678.1105086927685</v>
+        <v>681.6837829789655</v>
       </c>
       <c r="T43" t="n">
-        <v>562.2033067158396</v>
+        <v>565.7765810020367</v>
       </c>
       <c r="U43" t="n">
-        <v>562.2033067158396</v>
+        <v>390.8780806643985</v>
       </c>
       <c r="V43" t="n">
-        <v>562.2033067158396</v>
+        <v>390.8780806643985</v>
       </c>
       <c r="W43" t="n">
-        <v>451.5488035883828</v>
+        <v>390.8780806643985</v>
       </c>
       <c r="X43" t="n">
-        <v>337.8715281031593</v>
+        <v>390.8780806643985</v>
       </c>
       <c r="Y43" t="n">
-        <v>231.391224372423</v>
+        <v>390.8780806643985</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.5980815799443</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C44" t="n">
         <v>19.56501858889139</v>
@@ -7649,22 +7649,22 @@
         <v>19.56501858889139</v>
       </c>
       <c r="K44" t="n">
-        <v>124.4399474973465</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L44" t="n">
-        <v>306.8231980260858</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M44" t="n">
-        <v>526.3662512024594</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N44" t="n">
-        <v>734.8297429586091</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O44" t="n">
-        <v>886.4882690646269</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P44" t="n">
-        <v>978.2509294445697</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q44" t="n">
         <v>978.2509294445697</v>
@@ -7673,7 +7673,7 @@
         <v>978.2509294445697</v>
       </c>
       <c r="S44" t="n">
-        <v>918.7869890083615</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="T44" t="n">
         <v>918.7869890083615</v>
@@ -7685,13 +7685,13 @@
         <v>760.6642075620503</v>
       </c>
       <c r="W44" t="n">
-        <v>760.6642075620503</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="X44" t="n">
-        <v>760.6642075620503</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="Y44" t="n">
-        <v>513.6311445709973</v>
+        <v>266.5980815799443</v>
       </c>
     </row>
     <row r="45">
@@ -7728,40 +7728,40 @@
         <v>19.56501858889139</v>
       </c>
       <c r="K45" t="n">
-        <v>146.1858617037014</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L45" t="n">
-        <v>377.8476075409625</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="M45" t="n">
-        <v>377.8476075409625</v>
+        <v>261.6821236264224</v>
       </c>
       <c r="N45" t="n">
-        <v>551.9964494708621</v>
+        <v>503.7992286639534</v>
       </c>
       <c r="O45" t="n">
-        <v>794.1135545083931</v>
+        <v>745.9163337014844</v>
       </c>
       <c r="P45" t="n">
-        <v>978.2509294445697</v>
+        <v>930.053708637661</v>
       </c>
       <c r="Q45" t="n">
         <v>978.2509294445697</v>
       </c>
       <c r="R45" t="n">
-        <v>978.2509294445697</v>
+        <v>973.3375128497894</v>
       </c>
       <c r="S45" t="n">
-        <v>978.2509294445697</v>
+        <v>895.8289551211184</v>
       </c>
       <c r="T45" t="n">
-        <v>920.5902075939327</v>
+        <v>894.5759439917072</v>
       </c>
       <c r="U45" t="n">
-        <v>920.5902075939327</v>
+        <v>762.113373827492</v>
       </c>
       <c r="V45" t="n">
-        <v>781.198622323951</v>
+        <v>622.7217885575102</v>
       </c>
       <c r="W45" t="n">
         <v>622.7217885575102</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.56501858889139</v>
+        <v>722.6835997662753</v>
       </c>
       <c r="C46" t="n">
-        <v>19.56501858889139</v>
+        <v>649.5079398001293</v>
       </c>
       <c r="D46" t="n">
-        <v>19.56501858889139</v>
+        <v>595.1518233495544</v>
       </c>
       <c r="E46" t="n">
-        <v>19.56501858889139</v>
+        <v>542.9992527289222</v>
       </c>
       <c r="F46" t="n">
-        <v>19.56501858889139</v>
+        <v>491.8698281927728</v>
       </c>
       <c r="G46" t="n">
-        <v>19.56501858889139</v>
+        <v>417.9491851345349</v>
       </c>
       <c r="H46" t="n">
-        <v>19.56501858889139</v>
+        <v>349.9033745138447</v>
       </c>
       <c r="I46" t="n">
-        <v>19.56501858889139</v>
+        <v>288.8444599509838</v>
       </c>
       <c r="J46" t="n">
-        <v>21.45802235941276</v>
+        <v>290.7374637215052</v>
       </c>
       <c r="K46" t="n">
-        <v>94.02812135247748</v>
+        <v>363.3075627145699</v>
       </c>
       <c r="L46" t="n">
-        <v>216.172241967775</v>
+        <v>485.4516833298674</v>
       </c>
       <c r="M46" t="n">
-        <v>350.24328238186</v>
+        <v>619.5227237439524</v>
       </c>
       <c r="N46" t="n">
-        <v>488.7926890141039</v>
+        <v>758.0721303761962</v>
       </c>
       <c r="O46" t="n">
-        <v>607.9139035163084</v>
+        <v>877.1933448784008</v>
       </c>
       <c r="P46" t="n">
-        <v>699.867816582922</v>
+        <v>969.1472579450144</v>
       </c>
       <c r="Q46" t="n">
-        <v>708.9714880824773</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="R46" t="n">
-        <v>629.4067150262428</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="S46" t="n">
-        <v>629.4067150262428</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="T46" t="n">
-        <v>629.4067150262428</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="U46" t="n">
-        <v>629.4067150262428</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="V46" t="n">
-        <v>470.4827497821167</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="W46" t="n">
-        <v>276.826102706917</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="X46" t="n">
-        <v>144.5970747706606</v>
+        <v>933.6035978165233</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.56501858889139</v>
+        <v>808.5715416347541</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7982,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>242.6424607116987</v>
       </c>
       <c r="M2" t="n">
-        <v>236.944458939016</v>
+        <v>237.2222789689842</v>
       </c>
       <c r="N2" t="n">
         <v>236.2891093383024</v>
       </c>
       <c r="O2" t="n">
-        <v>236.9742571633982</v>
+        <v>236.69643713343</v>
       </c>
       <c r="P2" t="n">
-        <v>238.109041496981</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,16 +8064,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N3" t="n">
-        <v>137.9399377950766</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O3" t="n">
-        <v>149.4722901861559</v>
+        <v>149.1944701561877</v>
       </c>
       <c r="P3" t="n">
-        <v>140.8504531560417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>146.857819827733</v>
@@ -8219,13 +8219,13 @@
         <v>226.6880767567238</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>242.6424607116987</v>
       </c>
       <c r="M5" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2891093383024</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
         <v>236.9742571633982</v>
@@ -8298,19 +8298,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>145.4304255215856</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>137.9399377950766</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O6" t="n">
-        <v>149.4722901861559</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>140.8504531560417</v>
+        <v>140.5726331260735</v>
       </c>
       <c r="Q6" t="n">
         <v>146.857819827733</v>
@@ -8377,7 +8377,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>141.4829019929816</v>
+        <v>141.7607220229497</v>
       </c>
       <c r="M7" t="n">
         <v>145.8018296893165</v>
@@ -8386,7 +8386,7 @@
         <v>134.5615902069446</v>
       </c>
       <c r="O7" t="n">
-        <v>145.3325841935542</v>
+        <v>145.0547641635861</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>226.965896786692</v>
       </c>
       <c r="L8" t="n">
-        <v>242.3646406817305</v>
+        <v>242.6424607116987</v>
       </c>
       <c r="M8" t="n">
         <v>237.2222789689842</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2891093383024</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>236.9742571633982</v>
+        <v>236.69643713343</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8535,16 +8535,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>145.4304255215856</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>137.9399377950766</v>
       </c>
       <c r="O9" t="n">
-        <v>149.1944701561877</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P9" t="n">
         <v>140.8504531560417</v>
@@ -8614,10 +8614,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>141.4829019929816</v>
+        <v>141.7607220229497</v>
       </c>
       <c r="M10" t="n">
-        <v>145.8018296893165</v>
+        <v>145.5240096593483</v>
       </c>
       <c r="N10" t="n">
         <v>134.5615902069446</v>
@@ -8778,16 +8778,16 @@
         <v>384.6945110063436</v>
       </c>
       <c r="N12" t="n">
-        <v>303.4246101702874</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O12" t="n">
-        <v>385.2788254813443</v>
+        <v>199.9611234304834</v>
       </c>
       <c r="P12" t="n">
-        <v>132.4654202195568</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9012,19 +9012,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>384.6945110063436</v>
+        <v>244.9354681589041</v>
       </c>
       <c r="N15" t="n">
-        <v>305.1943842085482</v>
+        <v>129.2864630672354</v>
       </c>
       <c r="O15" t="n">
-        <v>140.7160931202018</v>
+        <v>385.2788254813442</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>138.9730561082392</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,19 +9246,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>231.0813024560196</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>384.6945110063437</v>
+        <v>186.370084218142</v>
       </c>
       <c r="N18" t="n">
-        <v>129.2864630672354</v>
+        <v>373.8491954283779</v>
       </c>
       <c r="O18" t="n">
         <v>385.2788254813443</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>132.4654202195568</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>314.2699257482532</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N21" t="n">
-        <v>373.8491954283779</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O21" t="n">
         <v>385.2788254813443</v>
       </c>
       <c r="P21" t="n">
-        <v>132.4654202195568</v>
+        <v>133.1450665890763</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627455</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10668,13 +10668,13 @@
         <v>136.5653954824675</v>
       </c>
       <c r="L36" t="n">
-        <v>136.8385818314783</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>384.6945110063436</v>
+        <v>199.3768089554827</v>
       </c>
       <c r="N36" t="n">
-        <v>373.8491954283778</v>
+        <v>373.8491954283779</v>
       </c>
       <c r="O36" t="n">
         <v>385.2788254813443</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>187.6571175293591</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,13 +10908,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>186.370084218142</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N39" t="n">
-        <v>373.8491954283779</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O39" t="n">
-        <v>385.2788254813443</v>
+        <v>186.9543986931426</v>
       </c>
       <c r="P39" t="n">
         <v>132.4654202195568</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627455</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,16 +11148,16 @@
         <v>384.6945110063436</v>
       </c>
       <c r="N42" t="n">
-        <v>129.2864630672354</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O42" t="n">
-        <v>245.5197826339047</v>
+        <v>385.2788254813443</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.1450665890763</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>136.8385818314783</v>
       </c>
       <c r="M45" t="n">
-        <v>140.1317786452013</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N45" t="n">
-        <v>305.1943842085482</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O45" t="n">
         <v>385.2788254813443</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>138.9730561082392</v>
+        <v>187.6571175293591</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,10 +23258,10 @@
         <v>253.9309944664266</v>
       </c>
       <c r="C11" t="n">
-        <v>236.4700445739536</v>
+        <v>196.6241875717536</v>
       </c>
       <c r="D11" t="n">
-        <v>225.880194423629</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>8.564790514065407</v>
@@ -23270,10 +23270,10 @@
         <v>33.51046618351506</v>
       </c>
       <c r="G11" t="n">
-        <v>41.92238865887538</v>
+        <v>286.4851210200178</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>210.5206988449226</v>
       </c>
       <c r="I11" t="n">
         <v>81.10364900976714</v>
@@ -23303,13 +23303,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>20.13851882462786</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.88066700957427</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>94.22834976480537</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>122.5416241669375</v>
@@ -23324,7 +23324,7 @@
         <v>240.9282534814151</v>
       </c>
       <c r="Y11" t="n">
-        <v>252.5449356402279</v>
+        <v>257.4350914589996</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>15.99662821797649</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>39.18150716274486</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>48.19266014946018</v>
       </c>
       <c r="S13" t="n">
-        <v>73.72192924721476</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>96.9068081919832</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>215.8116883886653</v>
       </c>
       <c r="E14" t="n">
-        <v>243.0590168402441</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.44196014855135</v>
+        <v>23.44196014855137</v>
       </c>
       <c r="G14" t="n">
-        <v>31.85388262391166</v>
+        <v>31.85388262391169</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>54.57276560016973</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>10.07001278966411</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>69.81216097461052</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>84.15984372984163</v>
       </c>
       <c r="U14" t="n">
-        <v>88.02888438601545</v>
+        <v>112.4731181319737</v>
       </c>
       <c r="V14" t="n">
         <v>188.8809052381172</v>
@@ -23732,22 +23732,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>216.3315257493257</v>
       </c>
       <c r="D17" t="n">
-        <v>188.6259302385184</v>
+        <v>205.7416755990012</v>
       </c>
       <c r="E17" t="n">
-        <v>232.98900405058</v>
+        <v>197.1900726878369</v>
       </c>
       <c r="F17" t="n">
         <v>13.37194735888721</v>
       </c>
       <c r="G17" t="n">
-        <v>266.3466021953899</v>
+        <v>21.78386983424753</v>
       </c>
       <c r="H17" t="n">
-        <v>190.3821800202947</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>60.96513018513929</v>
@@ -23798,7 +23798,7 @@
         <v>220.7897346567872</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>237.2965726343718</v>
       </c>
     </row>
     <row r="18">
@@ -23975,19 +23975,19 @@
         <v>205.7416755990012</v>
       </c>
       <c r="E20" t="n">
-        <v>232.98900405058</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>13.37194735888721</v>
       </c>
       <c r="G20" t="n">
-        <v>21.78386983424753</v>
+        <v>233.6519301891216</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>190.3821800202947</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>60.96513018513929</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,19 +24017,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>59.74214818494642</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>74.08983094017752</v>
       </c>
       <c r="U20" t="n">
-        <v>72.58772097136003</v>
+        <v>102.4031053423096</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>200.2996026957312</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>220.7897346567872</v>
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>28.24156080215741</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>205.7416755990012</v>
+        <v>161.9876856953413</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>266.3466021953899</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>190.3821800202947</v>
       </c>
       <c r="I23" t="n">
         <v>60.96513018513929</v>
@@ -24260,7 +24260,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>102.4031053423096</v>
       </c>
       <c r="V23" t="n">
         <v>178.8108924484531</v>
@@ -24269,7 +24269,7 @@
         <v>200.2996026957312</v>
       </c>
       <c r="X23" t="n">
-        <v>220.7897346567872</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24440,22 +24440,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>28.51119123446455</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>238.0106136151961</v>
+        <v>238.0106136151962</v>
       </c>
       <c r="D26" t="n">
-        <v>227.4207634648715</v>
+        <v>227.4207634648716</v>
       </c>
       <c r="E26" t="n">
-        <v>254.6680919164504</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>288.0256900612604</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24491,25 +24491,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>81.42123605081684</v>
       </c>
       <c r="T26" t="n">
-        <v>95.76891880604789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>124.0821932081801</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>200.4899803143235</v>
       </c>
       <c r="W26" t="n">
         <v>221.9786905616016</v>
       </c>
       <c r="X26" t="n">
-        <v>242.4688225226576</v>
+        <v>186.373585345282</v>
       </c>
       <c r="Y26" t="n">
-        <v>258.9756605002422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>21.35319486240093</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>19.17168449075774</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>18.15876986711982</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>40.72207620398738</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>34.90599209081518</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>27.98896499356414</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>35.5238124492295</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>159.2607201807796</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>38.56377477709641</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24677,19 +24677,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>247.1738346161103</v>
+        <v>99.78850131084306</v>
       </c>
       <c r="C29" t="n">
-        <v>229.7128847236373</v>
+        <v>229.7128847236374</v>
       </c>
       <c r="D29" t="n">
-        <v>219.1230345733127</v>
+        <v>219.1230345733128</v>
       </c>
       <c r="E29" t="n">
-        <v>246.3703630248915</v>
+        <v>246.3703630248916</v>
       </c>
       <c r="F29" t="n">
-        <v>271.3160386943412</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>13.38135897431156</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24737,16 +24737,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>192.1922514227647</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>213.6809616700428</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>234.1710936310988</v>
       </c>
       <c r="Y29" t="n">
-        <v>207.9615757499858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24968,16 +24968,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>2.738284972009908</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>40.97362911176751</v>
+        <v>107.4593464802855</v>
       </c>
       <c r="W32" t="n">
-        <v>128.9480567275636</v>
+        <v>65.20062433105528</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>38.6659203720083</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25160,16 +25160,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>161.6374580824124</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>186.583133751862</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>119.0306340521271</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25208,13 +25208,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>31.05155937414204</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>107.4593464802855</v>
       </c>
       <c r="W35" t="n">
-        <v>76.93492517185186</v>
+        <v>128.9480567275636</v>
       </c>
       <c r="X35" t="n">
         <v>149.4381886886196</v>
@@ -25388,22 +25388,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>137.2255099941724</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>144.9799797811581</v>
+        <v>62.93295466862004</v>
       </c>
       <c r="D38" t="n">
-        <v>134.3901296308335</v>
+        <v>134.3901296308336</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>161.6374580824124</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>186.5831337518621</v>
       </c>
       <c r="G38" t="n">
-        <v>194.9950562272223</v>
+        <v>194.9950562272224</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25451,7 +25451,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>128.9480567275636</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>45.66291803872517</v>
+        <v>269.5646890048147</v>
       </c>
       <c r="C41" t="n">
-        <v>7.541006751199234</v>
+        <v>252.1037391123417</v>
       </c>
       <c r="D41" t="n">
         <v>241.5138889620171</v>
@@ -25643,10 +25643,10 @@
         <v>302.1188155584059</v>
       </c>
       <c r="H41" t="n">
-        <v>226.1543933833106</v>
+        <v>226.1543933833107</v>
       </c>
       <c r="I41" t="n">
-        <v>96.73734354815521</v>
+        <v>96.73734354815522</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,19 +25673,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>35.77221336301593</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>95.51436154796234</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>109.8620443031934</v>
+        <v>109.8620443031935</v>
       </c>
       <c r="U41" t="n">
-        <v>138.1753187053255</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>214.583105811469</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>256.5619480198031</v>
       </c>
       <c r="Y41" t="n">
-        <v>28.50605363624527</v>
+        <v>44.0865497367864</v>
       </c>
     </row>
     <row r="42">
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>54.07766843996195</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>54.81520170113293</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>48.99911758796073</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>3.537541543335159</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,19 +25840,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>173.1495153342617</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>138.9684906651621</v>
       </c>
       <c r="W43" t="n">
-        <v>63.80588758174284</v>
+        <v>173.3538456779251</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>112.5405027303713</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>105.4155006934289</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25865,7 @@
         <v>43.36819157019482</v>
       </c>
       <c r="C44" t="n">
-        <v>25.90724167772186</v>
+        <v>270.4699740388643</v>
       </c>
       <c r="D44" t="n">
         <v>259.8801238885396</v>
@@ -25913,10 +25913,10 @@
         <v>54.13844828953851</v>
       </c>
       <c r="S44" t="n">
-        <v>55.01129544263881</v>
+        <v>113.8805964744849</v>
       </c>
       <c r="T44" t="n">
-        <v>128.228279229716</v>
+        <v>69.35897819786993</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>232.9493407379916</v>
       </c>
       <c r="W44" t="n">
-        <v>254.4380509852697</v>
+        <v>9.875318624127289</v>
       </c>
       <c r="X44" t="n">
         <v>274.9281829463257</v>
@@ -25989,22 +25989,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>4.864282428832491</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>76.73347215138432</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>48.24584463244501</v>
+        <v>104.0894782464585</v>
       </c>
       <c r="U45" t="n">
-        <v>131.137944462573</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>156.8920654287763</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>85.029062449794</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>72.44390336648453</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>53.81255528606906</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>51.63104491442587</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>50.61813029078795</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>73.18143662765551</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>67.36535251448331</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>60.44832541723227</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>3.423464288698611</v>
+        <v>82.19258961437083</v>
       </c>
       <c r="S46" t="n">
         <v>129.0982246463643</v>
@@ -26080,13 +26080,13 @@
         <v>191.5157502607843</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>157.3347255916847</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>191.7200806044477</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>86.70587934512798</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>595155.1125090034</v>
+        <v>595155.1125090033</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>608089.5181017591</v>
+        <v>608089.518101759</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>618029.0235256692</v>
+        <v>618029.0235256691</v>
       </c>
     </row>
     <row r="8">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>799861.7300691411</v>
+        <v>799861.7300691409</v>
       </c>
       <c r="C2" t="n">
-        <v>799861.7300691414</v>
+        <v>799861.7300691413</v>
       </c>
       <c r="D2" t="n">
         <v>799861.730069141</v>
       </c>
       <c r="E2" t="n">
-        <v>632908.8516560175</v>
+        <v>632908.8516560176</v>
       </c>
       <c r="F2" t="n">
-        <v>649181.168369484</v>
+        <v>649181.1683694832</v>
       </c>
       <c r="G2" t="n">
         <v>661685.7074511768</v>
       </c>
       <c r="H2" t="n">
-        <v>661685.7074511771</v>
+        <v>661685.7074511775</v>
       </c>
       <c r="I2" t="n">
-        <v>705758.7781350425</v>
+        <v>705758.7781350424</v>
       </c>
       <c r="J2" t="n">
-        <v>674209.4608047056</v>
+        <v>674209.4608047052</v>
       </c>
       <c r="K2" t="n">
-        <v>689142.3418151014</v>
+        <v>689142.3418151013</v>
       </c>
       <c r="L2" t="n">
         <v>787115.5852830082</v>
       </c>
       <c r="M2" t="n">
-        <v>743042.5145991429</v>
+        <v>743042.5145991433</v>
       </c>
       <c r="N2" t="n">
-        <v>743042.5145991431</v>
+        <v>743042.5145991432</v>
       </c>
       <c r="O2" t="n">
-        <v>604773.9121628596</v>
+        <v>604773.9121628595</v>
       </c>
       <c r="P2" t="n">
-        <v>560932.4210978783</v>
+        <v>560932.4210978785</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2304.321077099562</v>
+        <v>2304.321077099536</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>38912.30884096929</v>
+        <v>38912.3088409693</v>
       </c>
       <c r="J3" t="n">
-        <v>87498.08357699119</v>
+        <v>87498.08357699118</v>
       </c>
       <c r="K3" t="n">
-        <v>14692.98794121807</v>
+        <v>14692.98794121805</v>
       </c>
       <c r="L3" t="n">
-        <v>75842.33418571462</v>
+        <v>75842.33418571464</v>
       </c>
       <c r="M3" t="n">
-        <v>22766.36841068613</v>
+        <v>22766.3684106861</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>402519.3563423398</v>
+        <v>403521.8812643668</v>
       </c>
       <c r="C4" t="n">
-        <v>402519.3563423398</v>
+        <v>403521.8812643668</v>
       </c>
       <c r="D4" t="n">
-        <v>402519.3563423398</v>
+        <v>403521.8812643668</v>
       </c>
       <c r="E4" t="n">
-        <v>270483.3518818791</v>
+        <v>272016.1118759029</v>
       </c>
       <c r="F4" t="n">
-        <v>280009.2007262533</v>
+        <v>281541.9607202771</v>
       </c>
       <c r="G4" t="n">
-        <v>287280.6540730018</v>
+        <v>288813.4140670256</v>
       </c>
       <c r="H4" t="n">
-        <v>287280.6540730018</v>
+        <v>288813.4140670255</v>
       </c>
       <c r="I4" t="n">
-        <v>306611.4884412985</v>
+        <v>308256.714698529</v>
       </c>
       <c r="J4" t="n">
-        <v>288187.3780289219</v>
+        <v>289832.6042861523</v>
       </c>
       <c r="K4" t="n">
-        <v>296949.6036852528</v>
+        <v>298594.8299424832</v>
       </c>
       <c r="L4" t="n">
-        <v>354044.7413899478</v>
+        <v>355689.9676471783</v>
       </c>
       <c r="M4" t="n">
-        <v>334713.9070216511</v>
+        <v>336246.6670156749</v>
       </c>
       <c r="N4" t="n">
-        <v>334713.907021651</v>
+        <v>336246.6670156749</v>
       </c>
       <c r="O4" t="n">
-        <v>253974.5021498931</v>
+        <v>255507.262143917</v>
       </c>
       <c r="P4" t="n">
-        <v>228264.2576320888</v>
+        <v>229797.0176261127</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>25777.83089963927</v>
       </c>
       <c r="F5" t="n">
-        <v>26624.28013349264</v>
+        <v>26624.28013349263</v>
       </c>
       <c r="G5" t="n">
         <v>27470.85603870691</v>
@@ -26488,7 +26488,7 @@
         <v>27470.85603870691</v>
       </c>
       <c r="I5" t="n">
-        <v>36367.74036725159</v>
+        <v>36367.7403672516</v>
       </c>
       <c r="J5" t="n">
         <v>34545.20112945575</v>
@@ -26497,13 +26497,13 @@
         <v>35242.78289964019</v>
       </c>
       <c r="L5" t="n">
-        <v>42366.19348524948</v>
+        <v>42366.19348524949</v>
       </c>
       <c r="M5" t="n">
-        <v>33469.3091567048</v>
+        <v>33469.30915670479</v>
       </c>
       <c r="N5" t="n">
-        <v>33469.3091567048</v>
+        <v>33469.30915670479</v>
       </c>
       <c r="O5" t="n">
         <v>24463.52183349152</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>360992.3890686058</v>
+        <v>359989.8641465785</v>
       </c>
       <c r="C6" t="n">
-        <v>363296.7101457056</v>
+        <v>362294.1852236784</v>
       </c>
       <c r="D6" t="n">
-        <v>363296.7101457052</v>
+        <v>362294.1852236782</v>
       </c>
       <c r="E6" t="n">
-        <v>159685.7831293799</v>
+        <v>158153.0231353562</v>
       </c>
       <c r="F6" t="n">
-        <v>334492.882681767</v>
+        <v>332960.1226877425</v>
       </c>
       <c r="G6" t="n">
-        <v>338878.1871077369</v>
+        <v>337345.4271137131</v>
       </c>
       <c r="H6" t="n">
-        <v>346934.1973394684</v>
+        <v>345401.4373454451</v>
       </c>
       <c r="I6" t="n">
-        <v>323867.2404855231</v>
+        <v>322222.0142282925</v>
       </c>
       <c r="J6" t="n">
-        <v>263978.7980693367</v>
+        <v>262333.5718121059</v>
       </c>
       <c r="K6" t="n">
-        <v>342256.9672889904</v>
+        <v>340611.7410317598</v>
       </c>
       <c r="L6" t="n">
-        <v>314862.3162220963</v>
+        <v>313217.0899648658</v>
       </c>
       <c r="M6" t="n">
-        <v>352092.9300101009</v>
+        <v>350560.1700160775</v>
       </c>
       <c r="N6" t="n">
-        <v>374859.2984207872</v>
+        <v>373326.5384267634</v>
       </c>
       <c r="O6" t="n">
-        <v>326335.8881794749</v>
+        <v>324803.128185451</v>
       </c>
       <c r="P6" t="n">
-        <v>309748.6726363357</v>
+        <v>308215.9126423121</v>
       </c>
     </row>
   </sheetData>
@@ -26808,16 +26808,16 @@
         <v>244.5627323611424</v>
       </c>
       <c r="I4" t="n">
-        <v>390.8930667122064</v>
+        <v>390.8930667122065</v>
       </c>
       <c r="J4" t="n">
-        <v>390.8930667122064</v>
+        <v>390.8930667122065</v>
       </c>
       <c r="K4" t="n">
-        <v>390.8930667122064</v>
+        <v>390.8930667122065</v>
       </c>
       <c r="L4" t="n">
-        <v>390.8930667122064</v>
+        <v>390.8930667122065</v>
       </c>
       <c r="M4" t="n">
         <v>244.5627323611424</v>
@@ -26932,10 +26932,10 @@
         <v>107.1237593311835</v>
       </c>
       <c r="K2" t="n">
-        <v>18.36623492652259</v>
+        <v>18.36623492652257</v>
       </c>
       <c r="L2" t="n">
-        <v>94.80291773214327</v>
+        <v>94.8029177321433</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>146.330334351064</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711494</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>91.356352268367</v>
+        <v>91.35635226836689</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>107.1237593311835</v>
       </c>
       <c r="P2" t="n">
-        <v>18.36623492652259</v>
+        <v>18.36623492652257</v>
       </c>
     </row>
     <row r="3">
@@ -27427,16 +27427,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>202.9636484969459</v>
+        <v>202.1440238445339</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>217.0394284748319</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>320.8762127284235</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,22 +27455,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.4767625605679</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>141.3886444753393</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>150.7690347136895</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>138.1931666516724</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>130.4674714214992</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27515,13 +27515,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>225.9245414077138</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>244.8189374192082</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>198.896939461766</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27558,10 +27558,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>86.48313437496134</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>15.39344608417142</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,28 +27576,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>79.28599750998295</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>170.417345635458</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>217.1405522952608</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>224.6106090740886</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>246.0812222345286</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>279.6469525948796</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>5.073243612901081</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,10 +27658,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>3.114653472833368</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>143.8126968518503</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>380.1815175667542</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,31 +27692,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>159.6571379081559</v>
       </c>
       <c r="C6" t="n">
-        <v>166.6520778990163</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>150.7690347136895</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>139.7593826303423</v>
       </c>
       <c r="G6" t="n">
-        <v>130.4674714214992</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>82.52058710970364</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>93.2817884109317</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>198.896939461766</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>16.21307073658342</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>79.28599750998295</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>217.1405522952608</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>221.0695436865701</v>
       </c>
       <c r="U7" t="n">
-        <v>279.4429836147795</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>245.2615975821166</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>279.6469525948796</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>219.6532342997377</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>348.6266205313835</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27871,10 +27871,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>203.5998438286945</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>5.892868265313085</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>244.4696071661251</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>166.6520778990163</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,16 +27941,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>105.359398494785</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>82.52058710970364</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>164.8071253621264</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>194.1083076055222</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27992,7 +27992,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>164.6559990042658</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28050,13 +28050,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.28599750998295</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>170.417345635458</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28065,16 +28065,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>279.4429836147795</v>
+        <v>280.2626082671915</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>245.2615975821166</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>279.6469525948796</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>218.8336096473257</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28181,13 +28181,13 @@
         <v>128.8028471970539</v>
       </c>
       <c r="G12" t="n">
-        <v>114.3565774017966</v>
+        <v>128.8028471970539</v>
       </c>
       <c r="H12" t="n">
-        <v>112.1591249337519</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,10 +28214,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S12" t="n">
-        <v>128.8028471970539</v>
+        <v>37.72394313176108</v>
       </c>
       <c r="T12" t="n">
         <v>128.8028471970539</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>138.8713532320177</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>138.8713532320177</v>
@@ -28415,13 +28415,13 @@
         <v>138.8713532320177</v>
       </c>
       <c r="F15" t="n">
-        <v>55.77322394421377</v>
+        <v>138.8713532320177</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I15" t="n">
         <v>89.12455904281175</v>
@@ -28454,10 +28454,10 @@
         <v>99.6672001609758</v>
       </c>
       <c r="S15" t="n">
-        <v>138.8713532320177</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>138.8713532320177</v>
+        <v>84.02119058241557</v>
       </c>
       <c r="U15" t="n">
         <v>138.8713532320177</v>
@@ -28512,10 +28512,10 @@
         <v>138.8713532320177</v>
       </c>
       <c r="L16" t="n">
-        <v>58.32330495230784</v>
+        <v>138.8713532320177</v>
       </c>
       <c r="M16" t="n">
-        <v>138.8713532320177</v>
+        <v>58.32330495230766</v>
       </c>
       <c r="N16" t="n">
         <v>138.8713532320177</v>
@@ -28658,10 +28658,10 @@
         <v>137.3356148920818</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,13 +28691,13 @@
         <v>99.6672001609758</v>
       </c>
       <c r="S18" t="n">
-        <v>51.10184751566139</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="T18" t="n">
-        <v>148.9413660216818</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>148.9413660216818</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>148.9413660216818</v>
@@ -28709,7 +28709,7 @@
         <v>148.9413660216818</v>
       </c>
       <c r="Y18" t="n">
-        <v>148.9413660216818</v>
+        <v>147.7008955824614</v>
       </c>
     </row>
     <row r="19">
@@ -28752,7 +28752,7 @@
         <v>148.9413660216818</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="N19" t="n">
         <v>148.9413660216818</v>
@@ -28761,10 +28761,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>148.9413660216818</v>
+        <v>42.19967857504535</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.8069685298601</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R19" t="n">
         <v>148.9413660216818</v>
@@ -28898,7 +28898,7 @@
         <v>112.1591249337519</v>
       </c>
       <c r="I21" t="n">
-        <v>89.12455904281175</v>
+        <v>38.60992274288541</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,16 +28925,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>99.6672001609758</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>147.7008955824614</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="V21" t="n">
         <v>148.9413660216818</v>
@@ -28943,10 +28943,10 @@
         <v>148.9413660216818</v>
       </c>
       <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
         <v>148.9413660216818</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28980,28 +28980,28 @@
         <v>148.9413660216818</v>
       </c>
       <c r="J22" t="n">
+        <v>92.89079271141465</v>
+      </c>
+      <c r="K22" t="n">
+        <v>98.25025188531259</v>
+      </c>
+      <c r="L22" t="n">
         <v>148.9413660216818</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>148.9413660216818</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>148.9413660216818</v>
       </c>
       <c r="O22" t="n">
-        <v>127.8069685298603</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>148.9413660216818</v>
       </c>
       <c r="Q22" t="n">
-        <v>148.9413660216818</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R22" t="n">
         <v>148.9413660216818</v>
@@ -29062,22 +29062,22 @@
         <v>148.9413660216818</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
         <v>148.9413660216818</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>148.9413660216818</v>
       </c>
       <c r="O23" t="n">
-        <v>2.735081397498504</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>2.735081397498988</v>
       </c>
       <c r="Q23" t="n">
         <v>148.9413660216818</v>
@@ -29135,7 +29135,7 @@
         <v>112.1591249337519</v>
       </c>
       <c r="I24" t="n">
-        <v>89.12455904281175</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29165,7 +29165,7 @@
         <v>99.6672001609758</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>115.7707911407093</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29177,13 +29177,13 @@
         <v>148.9413660216818</v>
       </c>
       <c r="W24" t="n">
-        <v>26.64623209789772</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>148.9413660216818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29199,10 +29199,10 @@
         <v>148.9413660216818</v>
       </c>
       <c r="D25" t="n">
-        <v>148.9413660216818</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>148.9413660216818</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>148.9413660216818</v>
@@ -29217,19 +29217,19 @@
         <v>148.9413660216818</v>
       </c>
       <c r="J25" t="n">
-        <v>121.4533541525275</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="K25" t="n">
         <v>148.9413660216818</v>
       </c>
       <c r="L25" t="n">
+        <v>124.2866505311095</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>148.9413660216818</v>
-      </c>
-      <c r="M25" t="n">
-        <v>148.9413660216818</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29302,13 +29302,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>89.45143286098011</v>
+        <v>89.45143286098056</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>127.2622781558114</v>
       </c>
       <c r="N26" t="n">
-        <v>127.2622781558114</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>127.2622781558114</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>127.2622781558114</v>
       </c>
       <c r="D27" t="n">
-        <v>127.2622781558114</v>
+        <v>101.6088349651791</v>
       </c>
       <c r="E27" t="n">
-        <v>127.2622781558114</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>127.2622781558114</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>127.2622781558114</v>
       </c>
       <c r="H27" t="n">
         <v>112.1591249337519</v>
       </c>
       <c r="I27" t="n">
-        <v>89.12455904281175</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29402,25 +29402,25 @@
         <v>99.6672001609758</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>127.2622781558114</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>127.2622781558114</v>
       </c>
       <c r="U27" t="n">
-        <v>127.2622781558114</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>127.2622781558114</v>
       </c>
       <c r="W27" t="n">
-        <v>127.2622781558114</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>12.48427592236754</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>127.2622781558114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29536,11 +29536,11 @@
         <v>135.5600070473702</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>135.5600070473702</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
@@ -29548,10 +29548,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>56.26051729474483</v>
+        <v>135.5600070473702</v>
       </c>
       <c r="P29" t="n">
-        <v>135.5600070473702</v>
+        <v>56.26051729474533</v>
       </c>
       <c r="Q29" t="n">
         <v>135.5600070473702</v>
@@ -29597,13 +29597,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>89.9601807288262</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>135.5600070473702</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.5600070473702</v>
       </c>
       <c r="H30" t="n">
         <v>112.1591249337519</v>
@@ -29639,7 +29639,7 @@
         <v>99.6672001609758</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>135.5600070473702</v>
       </c>
       <c r="T30" t="n">
         <v>135.5600070473702</v>
@@ -29648,16 +29648,16 @@
         <v>135.5600070473702</v>
       </c>
       <c r="V30" t="n">
-        <v>135.5600070473702</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>135.5600070473702</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>135.5600070473702</v>
       </c>
       <c r="Y30" t="n">
-        <v>135.5600070473702</v>
+        <v>89.96018072882585</v>
       </c>
     </row>
     <row r="31">
@@ -29773,13 +29773,13 @@
         <v>220.2929119898494</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>220.2929119898494</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>135.9189079382774</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29791,7 +29791,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>220.2929119898494</v>
+        <v>135.9189079382782</v>
       </c>
       <c r="R32" t="n">
         <v>148.9413660216818</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -29837,16 +29837,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H33" t="n">
         <v>112.1591249337519</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29882,7 +29882,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>220.2929119898494</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29894,7 +29894,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>127.8200414077871</v>
+        <v>143.1167507192261</v>
       </c>
     </row>
     <row r="34">
@@ -29919,7 +29919,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>212.5393512300387</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H34" t="n">
         <v>162.1682702466266</v>
@@ -29943,7 +29943,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>44.55499687024008</v>
       </c>
       <c r="P34" t="n">
         <v>1.920177260816417</v>
@@ -30083,7 +30083,7 @@
         <v>112.1591249337519</v>
       </c>
       <c r="I36" t="n">
-        <v>89.12455904281175</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,10 +30110,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>99.6672001609758</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T36" t="n">
         <v>200.1328769967189</v>
@@ -30122,16 +30122,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>131.4242156189946</v>
+        <v>148.7698743654275</v>
       </c>
       <c r="W36" t="n">
         <v>7.132250799777182</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -30153,10 +30153,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>189.9760448931713</v>
       </c>
       <c r="G37" t="n">
-        <v>212.5393512300387</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H37" t="n">
         <v>162.1682702466266</v>
@@ -30308,7 +30308,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -30353,22 +30353,22 @@
         <v>171.5363898835276</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U39" t="n">
-        <v>111.9830874102825</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>7.132250799777182</v>
+        <v>172.7930617387217</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30381,7 +30381,7 @@
         <v>220.2929119898494</v>
       </c>
       <c r="C40" t="n">
-        <v>171.3408861609556</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -30393,7 +30393,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9843543597988</v>
+        <v>172.0784194221268</v>
       </c>
       <c r="H40" t="n">
         <v>162.1682702466266</v>
@@ -31753,7 +31753,7 @@
         <v>0.01476929806328569</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1512560737906246</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I11" t="n">
         <v>0.5693933635848223</v>
@@ -31771,10 +31771,10 @@
         <v>2.593359508554916</v>
       </c>
       <c r="N11" t="n">
-        <v>2.635322776677226</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O11" t="n">
-        <v>2.488460569060429</v>
+        <v>2.48846056906043</v>
       </c>
       <c r="P11" t="n">
         <v>2.123843523123063</v>
@@ -31783,13 +31783,13 @@
         <v>1.594918036231644</v>
       </c>
       <c r="R11" t="n">
-        <v>0.9277519194678707</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S11" t="n">
         <v>0.3365553796171231</v>
       </c>
       <c r="T11" t="n">
-        <v>0.06465260227203315</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U11" t="n">
         <v>0.001181543845062855</v>
@@ -31835,10 +31835,10 @@
         <v>0.07631930274452442</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2720738086033227</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578566</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>1.276043491891533</v>
@@ -31847,13 +31847,13 @@
         <v>1.715797948395859</v>
       </c>
       <c r="M12" t="n">
-        <v>2.002255276817063</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N12" t="n">
         <v>2.05524901609789</v>
       </c>
       <c r="O12" t="n">
-        <v>1.880151324242604</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P12" t="n">
         <v>1.508987194773435</v>
@@ -31862,16 +31862,16 @@
         <v>1.008717977782306</v>
       </c>
       <c r="R12" t="n">
-        <v>0.4906339916673423</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S12" t="n">
         <v>0.1467812203102001</v>
       </c>
       <c r="T12" t="n">
-        <v>0.03185169810273292</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0005198862584776868</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,22 +31908,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.006624998659945164</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05890226081296705</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I13" t="n">
         <v>0.1992317778827147</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4683874052581231</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K13" t="n">
-        <v>0.769704389764538</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9849566189522113</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M13" t="n">
         <v>1.038498653576677</v>
@@ -31932,22 +31932,22 @@
         <v>1.013805476753246</v>
       </c>
       <c r="O13" t="n">
-        <v>0.9364134469529769</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8012634742900948</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q13" t="n">
         <v>0.5547532968795902</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2978840306553525</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S13" t="n">
         <v>0.1154556584646807</v>
       </c>
       <c r="T13" t="n">
-        <v>0.02830681245612933</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U13" t="n">
         <v>0.0003613635632697367</v>
@@ -31990,7 +31990,7 @@
         <v>0.01476929806328569</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1512560737906246</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I14" t="n">
         <v>0.5693933635848223</v>
@@ -32008,10 +32008,10 @@
         <v>2.593359508554916</v>
       </c>
       <c r="N14" t="n">
-        <v>2.635322776677226</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O14" t="n">
-        <v>2.488460569060429</v>
+        <v>2.48846056906043</v>
       </c>
       <c r="P14" t="n">
         <v>2.123843523123063</v>
@@ -32020,13 +32020,13 @@
         <v>1.594918036231644</v>
       </c>
       <c r="R14" t="n">
-        <v>0.9277519194678707</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S14" t="n">
         <v>0.3365553796171231</v>
       </c>
       <c r="T14" t="n">
-        <v>0.06465260227203315</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U14" t="n">
         <v>0.001181543845062855</v>
@@ -32072,10 +32072,10 @@
         <v>0.07631930274452442</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2720738086033227</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578566</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>1.276043491891533</v>
@@ -32084,13 +32084,13 @@
         <v>1.715797948395859</v>
       </c>
       <c r="M15" t="n">
-        <v>2.002255276817063</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N15" t="n">
         <v>2.05524901609789</v>
       </c>
       <c r="O15" t="n">
-        <v>1.880151324242604</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P15" t="n">
         <v>1.508987194773435</v>
@@ -32099,16 +32099,16 @@
         <v>1.008717977782306</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4906339916673423</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S15" t="n">
         <v>0.1467812203102001</v>
       </c>
       <c r="T15" t="n">
-        <v>0.03185169810273292</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0005198862584776868</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,22 +32145,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.006624998659945164</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H16" t="n">
-        <v>0.05890226081296705</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I16" t="n">
         <v>0.1992317778827147</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4683874052581231</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K16" t="n">
-        <v>0.769704389764538</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9849566189522113</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M16" t="n">
         <v>1.038498653576677</v>
@@ -32169,22 +32169,22 @@
         <v>1.013805476753246</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9364134469529769</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P16" t="n">
-        <v>0.8012634742900948</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q16" t="n">
         <v>0.5547532968795902</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2978840306553525</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S16" t="n">
         <v>0.1154556584646807</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02830681245612933</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U16" t="n">
         <v>0.0003613635632697367</v>
@@ -32227,7 +32227,7 @@
         <v>0.01476929806328569</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1512560737906247</v>
+        <v>0.1512560737906246</v>
       </c>
       <c r="I17" t="n">
         <v>0.5693933635848223</v>
@@ -32245,10 +32245,10 @@
         <v>2.593359508554916</v>
       </c>
       <c r="N17" t="n">
-        <v>2.635322776677227</v>
+        <v>2.635322776677226</v>
       </c>
       <c r="O17" t="n">
-        <v>2.48846056906043</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P17" t="n">
         <v>2.123843523123063</v>
@@ -32257,13 +32257,13 @@
         <v>1.594918036231644</v>
       </c>
       <c r="R17" t="n">
-        <v>0.9277519194678708</v>
+        <v>0.9277519194678707</v>
       </c>
       <c r="S17" t="n">
         <v>0.3365553796171231</v>
       </c>
       <c r="T17" t="n">
-        <v>0.06465260227203316</v>
+        <v>0.06465260227203315</v>
       </c>
       <c r="U17" t="n">
         <v>0.001181543845062855</v>
@@ -32309,10 +32309,10 @@
         <v>0.07631930274452442</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2720738086033228</v>
+        <v>0.2720738086033227</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0.7465913262578566</v>
       </c>
       <c r="K18" t="n">
         <v>1.276043491891533</v>
@@ -32321,13 +32321,13 @@
         <v>1.715797948395859</v>
       </c>
       <c r="M18" t="n">
-        <v>2.002255276817064</v>
+        <v>2.002255276817063</v>
       </c>
       <c r="N18" t="n">
         <v>2.05524901609789</v>
       </c>
       <c r="O18" t="n">
-        <v>1.880151324242605</v>
+        <v>1.880151324242604</v>
       </c>
       <c r="P18" t="n">
         <v>1.508987194773435</v>
@@ -32336,16 +32336,16 @@
         <v>1.008717977782306</v>
       </c>
       <c r="R18" t="n">
-        <v>0.4906339916673424</v>
+        <v>0.4906339916673423</v>
       </c>
       <c r="S18" t="n">
         <v>0.1467812203102001</v>
       </c>
       <c r="T18" t="n">
-        <v>0.03185169810273293</v>
+        <v>0.03185169810273292</v>
       </c>
       <c r="U18" t="n">
-        <v>0.000519886258477687</v>
+        <v>0.0005198862584776868</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,22 +32382,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.006624998659945165</v>
+        <v>0.006624998659945164</v>
       </c>
       <c r="H19" t="n">
-        <v>0.05890226081296706</v>
+        <v>0.05890226081296705</v>
       </c>
       <c r="I19" t="n">
         <v>0.1992317778827147</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4683874052581232</v>
+        <v>0.4683874052581231</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7697043897645381</v>
+        <v>0.769704389764538</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9849566189522114</v>
+        <v>0.9849566189522113</v>
       </c>
       <c r="M19" t="n">
         <v>1.038498653576677</v>
@@ -32406,22 +32406,22 @@
         <v>1.013805476753246</v>
       </c>
       <c r="O19" t="n">
-        <v>0.936413446952977</v>
+        <v>0.9364134469529769</v>
       </c>
       <c r="P19" t="n">
-        <v>0.8012634742900949</v>
+        <v>0.8012634742900948</v>
       </c>
       <c r="Q19" t="n">
         <v>0.5547532968795902</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2978840306553526</v>
+        <v>0.2978840306553525</v>
       </c>
       <c r="S19" t="n">
         <v>0.1154556584646807</v>
       </c>
       <c r="T19" t="n">
-        <v>0.02830681245612934</v>
+        <v>0.02830681245612933</v>
       </c>
       <c r="U19" t="n">
         <v>0.0003613635632697367</v>
@@ -34702,19 +34702,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M2" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O2" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,16 +34784,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N3" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O3" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>6.876045741711437</v>
@@ -34939,13 +34939,13 @@
         <v>6.598225711743296</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>6.876045741711437</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q6" t="n">
         <v>6.876045741711437</v>
@@ -35097,7 +35097,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M7" t="n">
         <v>6.876045741711437</v>
@@ -35106,7 +35106,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O7" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L8" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35255,16 +35255,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="O9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>6.598225711743296</v>
       </c>
       <c r="P9" t="n">
         <v>6.876045741711437</v>
@@ -35334,10 +35334,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="M10" t="n">
         <v>6.598225711743296</v>
-      </c>
-      <c r="M10" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="N10" t="n">
         <v>6.876045741711437</v>
@@ -35498,16 +35498,16 @@
         <v>244.5627323611424</v>
       </c>
       <c r="N12" t="n">
-        <v>174.138147103052</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O12" t="n">
-        <v>244.5627323611424</v>
+        <v>59.24503031028151</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>185.9973484203803</v>
       </c>
       <c r="Q12" t="n">
-        <v>71.10423162760989</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>234.0017634719808</v>
       </c>
       <c r="M15" t="n">
+        <v>104.8036895137028</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>244.5627323611424</v>
-      </c>
-      <c r="N15" t="n">
-        <v>175.9079211413128</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>185.9973484203803</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>71.10423162760989</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,10 +35808,10 @@
         <v>117.3715657958994</v>
       </c>
       <c r="L16" t="n">
-        <v>86.89828683157619</v>
+        <v>167.4463351112861</v>
       </c>
       <c r="M16" t="n">
-        <v>179.493728847435</v>
+        <v>98.94568056772492</v>
       </c>
       <c r="N16" t="n">
         <v>184.0173310879995</v>
@@ -35966,19 +35966,19 @@
         <v>127.8998415301111</v>
       </c>
       <c r="L18" t="n">
-        <v>94.24272062454131</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M18" t="n">
+        <v>46.23830557294078</v>
+      </c>
+      <c r="N18" t="n">
         <v>244.5627323611424</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>244.5627323611424</v>
       </c>
       <c r="P18" t="n">
-        <v>185.9973484203803</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>71.10423162760989</v>
@@ -36048,7 +36048,7 @@
         <v>177.5163479009502</v>
       </c>
       <c r="M19" t="n">
-        <v>40.62237561541726</v>
+        <v>189.5637416370991</v>
       </c>
       <c r="N19" t="n">
         <v>194.0873438776636</v>
@@ -36057,10 +36057,10 @@
         <v>25.52154136099265</v>
       </c>
       <c r="P19" t="n">
-        <v>147.0211887608654</v>
+        <v>40.27950131422893</v>
       </c>
       <c r="Q19" t="n">
-        <v>42.19967857504534</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>234.0017634719808</v>
       </c>
       <c r="M21" t="n">
-        <v>174.1381471030519</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N21" t="n">
         <v>244.5627323611424</v>
@@ -36215,10 +36215,10 @@
         <v>244.5627323611424</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>0.679646369519445</v>
       </c>
       <c r="Q21" t="n">
-        <v>71.10423162760989</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>56.05057331026715</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>127.4415785855635</v>
+        <v>76.75046444919428</v>
       </c>
       <c r="L22" t="n">
-        <v>28.57498187926835</v>
+        <v>177.5163479009502</v>
       </c>
       <c r="M22" t="n">
-        <v>40.62237561541726</v>
+        <v>189.5637416370991</v>
       </c>
       <c r="N22" t="n">
         <v>194.0873438776636</v>
       </c>
       <c r="O22" t="n">
-        <v>153.3285098908529</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P22" t="n">
         <v>147.0211887608654</v>
       </c>
       <c r="Q22" t="n">
-        <v>63.33407606686701</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,22 +36358,22 @@
         <v>138.2456023785681</v>
       </c>
       <c r="K23" t="n">
-        <v>254.8756376463837</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L23" t="n">
         <v>184.2255055845852</v>
       </c>
       <c r="M23" t="n">
-        <v>221.7606597741147</v>
+        <v>370.7020257957965</v>
       </c>
       <c r="N23" t="n">
         <v>359.5105496137523</v>
       </c>
       <c r="O23" t="n">
-        <v>155.9255118076176</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P23" t="n">
-        <v>92.68955593933616</v>
+        <v>95.42463733683515</v>
       </c>
       <c r="Q23" t="n">
         <v>140.5455848433686</v>
@@ -36495,10 +36495,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3258930034694458</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>2.507403375112631</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>3.520317998750556</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>28.56256144111286</v>
+        <v>56.05057331026715</v>
       </c>
       <c r="K25" t="n">
         <v>127.4415785855635</v>
       </c>
       <c r="L25" t="n">
-        <v>177.5163479009502</v>
+        <v>152.8616324103779</v>
       </c>
       <c r="M25" t="n">
-        <v>189.5637416370991</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N25" t="n">
-        <v>45.14597785598184</v>
+        <v>194.0873438776636</v>
       </c>
       <c r="O25" t="n">
         <v>25.52154136099265</v>
@@ -36598,22 +36598,22 @@
         <v>105.9342716247019</v>
       </c>
       <c r="L26" t="n">
-        <v>273.6769384455653</v>
+        <v>273.6769384455657</v>
       </c>
       <c r="M26" t="n">
-        <v>221.7606597741147</v>
+        <v>349.0229379299261</v>
       </c>
       <c r="N26" t="n">
-        <v>337.8314617478819</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O26" t="n">
         <v>153.1904304101191</v>
       </c>
       <c r="P26" t="n">
-        <v>219.9518340951476</v>
+        <v>219.9518340951475</v>
       </c>
       <c r="Q26" t="n">
-        <v>118.8664969774983</v>
+        <v>118.8664969774982</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.37148544439678</v>
+        <v>34.37148544439672</v>
       </c>
       <c r="K28" t="n">
         <v>105.7624907196931</v>
       </c>
       <c r="L28" t="n">
-        <v>155.8372600350798</v>
+        <v>155.8372600350797</v>
       </c>
       <c r="M28" t="n">
-        <v>167.8846537712287</v>
+        <v>167.8846537712286</v>
       </c>
       <c r="N28" t="n">
-        <v>172.4082560117933</v>
+        <v>172.4082560117932</v>
       </c>
       <c r="O28" t="n">
-        <v>152.7838195168041</v>
+        <v>152.783819516804</v>
       </c>
       <c r="P28" t="n">
         <v>125.342100894995</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.65498820099663</v>
+        <v>41.65498820099658</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,10 +36832,10 @@
         <v>124.8642434042565</v>
       </c>
       <c r="K29" t="n">
-        <v>241.4942786720721</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L29" t="n">
-        <v>184.2255055845852</v>
+        <v>319.7855126319553</v>
       </c>
       <c r="M29" t="n">
         <v>221.7606597741147</v>
@@ -36844,13 +36844,13 @@
         <v>210.5691835920705</v>
       </c>
       <c r="O29" t="n">
-        <v>209.4509477048639</v>
+        <v>288.7504374574892</v>
       </c>
       <c r="P29" t="n">
-        <v>228.2495629867064</v>
+        <v>148.9500732340815</v>
       </c>
       <c r="Q29" t="n">
-        <v>127.1642258690571</v>
+        <v>127.164225869057</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.6692143359556</v>
+        <v>42.66921433595554</v>
       </c>
       <c r="K31" t="n">
         <v>114.0602196112519</v>
       </c>
       <c r="L31" t="n">
-        <v>164.1349889266386</v>
+        <v>164.1349889266385</v>
       </c>
       <c r="M31" t="n">
         <v>176.1823826627875</v>
       </c>
       <c r="N31" t="n">
-        <v>180.7059849033521</v>
+        <v>180.705984903352</v>
       </c>
       <c r="O31" t="n">
-        <v>161.0815484083629</v>
+        <v>161.0815484083628</v>
       </c>
       <c r="P31" t="n">
         <v>133.6398297865538</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.95271709255546</v>
+        <v>49.9527170925554</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,19 +37063,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>10.38641578302833</v>
+        <v>10.3864157830283</v>
       </c>
       <c r="J32" t="n">
         <v>209.5971483467357</v>
       </c>
       <c r="K32" t="n">
-        <v>105.9342716247019</v>
+        <v>326.2271836145512</v>
       </c>
       <c r="L32" t="n">
         <v>184.2255055845852</v>
       </c>
       <c r="M32" t="n">
-        <v>357.679567712392</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N32" t="n">
         <v>210.5691835920705</v>
@@ -37087,13 +37087,13 @@
         <v>92.68955593933616</v>
       </c>
       <c r="Q32" t="n">
-        <v>211.8971308115362</v>
+        <v>127.523126759965</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>11.6093977832212</v>
+        <v>11.60939778322117</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37215,7 +37215,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>44.55499687023991</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>45.14597785598184</v>
       </c>
       <c r="O34" t="n">
-        <v>25.52154136099265</v>
+        <v>70.07653823123273</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>105.9342716247021</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L35" t="n">
         <v>184.2255055845852</v>
@@ -37318,7 +37318,7 @@
         <v>210.5691835920705</v>
       </c>
       <c r="O35" t="n">
-        <v>153.1904304101191</v>
+        <v>153.1904304101192</v>
       </c>
       <c r="P35" t="n">
         <v>92.68955593933616</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M36" t="n">
-        <v>244.5627323611424</v>
+        <v>59.24503031028146</v>
       </c>
       <c r="N36" t="n">
         <v>244.5627323611424</v>
@@ -37403,7 +37403,7 @@
         <v>185.9973484203803</v>
       </c>
       <c r="Q36" t="n">
-        <v>48.68406142111991</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37449,10 +37449,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>44.5549968702401</v>
       </c>
       <c r="G37" t="n">
-        <v>44.55499687023993</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -37628,13 +37628,13 @@
         <v>234.0017634719808</v>
       </c>
       <c r="M39" t="n">
-        <v>46.23830557294078</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N39" t="n">
         <v>244.5627323611424</v>
       </c>
       <c r="O39" t="n">
-        <v>244.5627323611424</v>
+        <v>46.23830557294078</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37674,10 +37674,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>40.46093180791212</v>
+        <v>40.46093180791209</v>
       </c>
       <c r="C40" t="n">
-        <v>4.094065062327808</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -37689,7 +37689,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.09406506232801</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>210.5691835920705</v>
       </c>
       <c r="O41" t="n">
-        <v>153.1904304101191</v>
+        <v>153.1904304101192</v>
       </c>
       <c r="P41" t="n">
         <v>92.68955593933616</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>127.8998415301111</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>234.0017634719808</v>
@@ -37868,16 +37868,16 @@
         <v>244.5627323611424</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O42" t="n">
-        <v>104.8036895137028</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P42" t="n">
-        <v>185.9973484203803</v>
+        <v>0.679646369519445</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.10423162760989</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>20.27835994725123</v>
+        <v>20.27835994725121</v>
       </c>
       <c r="K43" t="n">
-        <v>91.66936522254757</v>
+        <v>91.66936522254755</v>
       </c>
       <c r="L43" t="n">
         <v>141.7441345379342</v>
       </c>
       <c r="M43" t="n">
-        <v>153.7915282740832</v>
+        <v>153.7915282740831</v>
       </c>
       <c r="N43" t="n">
         <v>158.3151305146477</v>
@@ -37953,10 +37953,10 @@
         <v>138.6906940196585</v>
       </c>
       <c r="P43" t="n">
-        <v>111.2489753978495</v>
+        <v>111.2489753978494</v>
       </c>
       <c r="Q43" t="n">
-        <v>27.56186270385108</v>
+        <v>27.56186270385107</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>105.9342716247021</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L44" t="n">
         <v>184.2255055845852</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>127.8998415301111</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>234.0017634719808</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N45" t="n">
-        <v>175.9079211413128</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O45" t="n">
         <v>244.5627323611424</v>
@@ -38114,7 +38114,7 @@
         <v>185.9973484203803</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>48.68406142111991</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
